--- a/docs/model_results.xlsx
+++ b/docs/model_results.xlsx
@@ -2,41 +2,73 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/DC2057430E44BE2F/Documents/Year 4/Semester 2/Math3205/Project/MATH3205_MPDPTW_Project/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{440ACC18-4607-4B62-BF4B-7E362AF5D573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{563F897D-DDAE-4C51-9394-73DEA6525600}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_4F35E98B1329DE3E4730D811509090B461F1183E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A7EBCBF-EDC8-40A3-8C45-564617C46012}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{75AEFE39-ED68-4E45-9DEE-E4F01865E297}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="150">
+  <si>
+    <t xml:space="preserve"> r = number of requests per instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n = number of nodes per instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UB (ALNS) = the solution obtained by ALNS of Naccache et al [2018]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sts = status (1: solved, 0: unsolved)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nbr of Arcs = number of arcs in the graph after pre-processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LB root = lower bound at root node</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LB = Lower bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UB = Upper bound</t>
+  </si>
+  <si>
+    <t>Gap final % = final gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time = runtime in seconds</t>
+  </si>
+  <si>
+    <t>3-index model</t>
+  </si>
+  <si>
+    <t>2-index model</t>
+  </si>
+  <si>
+    <t>ARF model</t>
+  </si>
+  <si>
+    <t>Column Generation</t>
+  </si>
+  <si>
+    <t>Column Generation Multi-Thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Thread Col Generation with Vehicle Capacity (Only if Different) </t>
+  </si>
   <si>
     <t>Instance</t>
   </si>
@@ -47,367 +79,16 @@
     <t>n</t>
   </si>
   <si>
-    <t>l_4_25_1</t>
-  </si>
-  <si>
-    <t>l_4_25_2</t>
-  </si>
-  <si>
-    <t>l_4_25_3</t>
-  </si>
-  <si>
-    <t>l_4_25_4</t>
-  </si>
-  <si>
-    <t>l_4_25_5</t>
-  </si>
-  <si>
-    <t>l_4_35_1</t>
-  </si>
-  <si>
-    <t>l_4_35_2</t>
-  </si>
-  <si>
-    <t>l_4_35_3</t>
-  </si>
-  <si>
-    <t>l_4_35_4</t>
-  </si>
-  <si>
-    <t>l_4_35_5</t>
-  </si>
-  <si>
-    <t>l_4_50_1</t>
-  </si>
-  <si>
-    <t>l_4_50_2</t>
-  </si>
-  <si>
-    <t>l_4_50_3</t>
-  </si>
-  <si>
-    <t>l_4_50_4</t>
-  </si>
-  <si>
-    <t>l_4_50_5</t>
-  </si>
-  <si>
-    <t>l_4_100_1</t>
-  </si>
-  <si>
-    <t>l_4_100_2</t>
-  </si>
-  <si>
-    <t>l_4_100_3</t>
-  </si>
-  <si>
-    <t>l_4_100_4</t>
-  </si>
-  <si>
-    <t>l_4_100_5</t>
-  </si>
-  <si>
-    <t>l_8_25_1</t>
-  </si>
-  <si>
-    <t>l_8_25_2</t>
-  </si>
-  <si>
-    <t>l_8_25_3</t>
-  </si>
-  <si>
-    <t>l_8_25_4</t>
-  </si>
-  <si>
-    <t>l_8_25_5</t>
-  </si>
-  <si>
-    <t>l_8_35_1</t>
-  </si>
-  <si>
-    <t>l_8_35_2</t>
-  </si>
-  <si>
-    <t>l_8_35_3</t>
-  </si>
-  <si>
-    <t>l_8_35_4</t>
-  </si>
-  <si>
-    <t>l_8_35_5</t>
-  </si>
-  <si>
-    <t>l_8_50_1</t>
-  </si>
-  <si>
-    <t>l_8_50_2</t>
-  </si>
-  <si>
-    <t>l_8_50_3</t>
-  </si>
-  <si>
-    <t>l_8_50_4</t>
-  </si>
-  <si>
-    <t>l_8_50_5</t>
-  </si>
-  <si>
-    <t>l_8_100_1</t>
-  </si>
-  <si>
-    <t>l_8_100_2</t>
-  </si>
-  <si>
-    <t>l_8_100_3</t>
-  </si>
-  <si>
-    <t>l_8_100_4</t>
-  </si>
-  <si>
-    <t>l_8_100_5</t>
-  </si>
-  <si>
-    <t>n_4_25_1</t>
-  </si>
-  <si>
-    <t>n_4_25_2</t>
-  </si>
-  <si>
-    <t>n_4_25_3</t>
-  </si>
-  <si>
-    <t>n_4_25_4</t>
-  </si>
-  <si>
-    <t>n_4_25_5</t>
-  </si>
-  <si>
-    <t>n_4_35_1</t>
-  </si>
-  <si>
-    <t>n_4_35_2</t>
-  </si>
-  <si>
-    <t>n_4_35_3</t>
-  </si>
-  <si>
-    <t>n_4_35_4</t>
-  </si>
-  <si>
-    <t>n_4_35_5</t>
-  </si>
-  <si>
-    <t>n_4_50_1</t>
-  </si>
-  <si>
-    <t>n_4_50_2</t>
-  </si>
-  <si>
-    <t>n_4_50_3</t>
-  </si>
-  <si>
-    <t>n_4_50_4</t>
-  </si>
-  <si>
-    <t>n_4_50_5</t>
-  </si>
-  <si>
-    <t>n_4_100_1</t>
-  </si>
-  <si>
-    <t>n_4_100_2</t>
-  </si>
-  <si>
-    <t>n_4_100_3</t>
-  </si>
-  <si>
-    <t>n_4_100_4</t>
-  </si>
-  <si>
-    <t>n_4_100_5</t>
-  </si>
-  <si>
-    <t>n_8_25_1</t>
-  </si>
-  <si>
-    <t>n_8_25_2</t>
-  </si>
-  <si>
-    <t>n_8_25_3</t>
-  </si>
-  <si>
-    <t>n_8_25_4</t>
-  </si>
-  <si>
-    <t>n_8_25_5</t>
-  </si>
-  <si>
-    <t>n_8_35_1</t>
-  </si>
-  <si>
-    <t>n_8_35_2</t>
-  </si>
-  <si>
-    <t>n_8_35_3</t>
-  </si>
-  <si>
-    <t>n_8_35_4</t>
-  </si>
-  <si>
-    <t>n_8_35_5</t>
-  </si>
-  <si>
-    <t>n_8_50_1</t>
-  </si>
-  <si>
-    <t>n_8_50_2</t>
-  </si>
-  <si>
-    <t>n_8_50_3</t>
-  </si>
-  <si>
-    <t>n_8_50_4</t>
-  </si>
-  <si>
-    <t>n_8_50_5</t>
-  </si>
-  <si>
-    <t>n_8_100_1</t>
-  </si>
-  <si>
-    <t>n_8_100_2</t>
-  </si>
-  <si>
-    <t>n_8_100_3</t>
-  </si>
-  <si>
-    <t>n_8_100_4</t>
-  </si>
-  <si>
-    <t>n_8_100_5</t>
-  </si>
-  <si>
-    <t>w_4_25_1</t>
-  </si>
-  <si>
-    <t>w_4_25_2</t>
-  </si>
-  <si>
-    <t>w_4_25_3</t>
-  </si>
-  <si>
-    <t>w_4_25_4</t>
-  </si>
-  <si>
-    <t>w_4_25_5</t>
-  </si>
-  <si>
-    <t>w_4_35_1</t>
-  </si>
-  <si>
-    <t>w_4_35_2</t>
-  </si>
-  <si>
-    <t>w_4_35_3</t>
-  </si>
-  <si>
-    <t>w_4_35_4</t>
-  </si>
-  <si>
-    <t>w_4_35_5</t>
-  </si>
-  <si>
-    <t>w_4_50_1</t>
-  </si>
-  <si>
-    <t>w_4_50_2</t>
-  </si>
-  <si>
-    <t>w_4_50_3</t>
-  </si>
-  <si>
-    <t>w_4_50_4</t>
-  </si>
-  <si>
-    <t>w_4_50_5</t>
-  </si>
-  <si>
-    <t>w_4_100_1</t>
-  </si>
-  <si>
-    <t>w_4_100_2</t>
-  </si>
-  <si>
-    <t>w_4_100_3</t>
-  </si>
-  <si>
-    <t>w_4_100_4</t>
-  </si>
-  <si>
-    <t>w_4_100_5</t>
-  </si>
-  <si>
-    <t>w_8_25_1</t>
-  </si>
-  <si>
-    <t>w_8_25_2</t>
-  </si>
-  <si>
-    <t>w_8_25_3</t>
-  </si>
-  <si>
-    <t>w_8_25_4</t>
-  </si>
-  <si>
-    <t>w_8_25_5</t>
-  </si>
-  <si>
-    <t>w_8_35_1</t>
-  </si>
-  <si>
-    <t>w_8_35_2</t>
-  </si>
-  <si>
-    <t>w_8_35_3</t>
-  </si>
-  <si>
-    <t>w_8_35_4</t>
-  </si>
-  <si>
-    <t>w_8_35_5</t>
-  </si>
-  <si>
-    <t>w_8_50_1</t>
-  </si>
-  <si>
-    <t>w_8_50_2</t>
-  </si>
-  <si>
-    <t>w_8_50_3</t>
-  </si>
-  <si>
-    <t>w_8_50_4</t>
-  </si>
-  <si>
-    <t>w_8_50_5</t>
-  </si>
-  <si>
-    <t>w_8_100_1</t>
-  </si>
-  <si>
-    <t>w_8_100_2</t>
-  </si>
-  <si>
-    <t>w_8_100_3</t>
-  </si>
-  <si>
-    <t>w_8_100_4</t>
-  </si>
-  <si>
-    <t>w_8_100_5</t>
+    <t>Arcs Cut</t>
+  </si>
+  <si>
+    <t>Final Nbr of Arcs</t>
   </si>
   <si>
     <t>Sts</t>
+  </si>
+  <si>
+    <t>Work Units</t>
   </si>
   <si>
     <t>LB</t>
@@ -424,67 +105,373 @@
 (s)</t>
   </si>
   <si>
-    <t xml:space="preserve"> r = number of requests per instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> n = number of nodes per instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UB (ALNS) = the solution obtained by ALNS of Naccache et al [2018]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sts = status (1: solved, 0: unsolved)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nbr of Arcs = number of arcs in the graph after pre-processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LB root = lower bound at root node</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LB = Lower bound</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UB = Upper bound</t>
-  </si>
-  <si>
-    <t>Gap final % = final gap</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Time = runtime in seconds</t>
-  </si>
-  <si>
-    <t>3-index model</t>
-  </si>
-  <si>
-    <t>Column Generation</t>
-  </si>
-  <si>
-    <t>Work Units</t>
-  </si>
-  <si>
     <t xml:space="preserve">Work Units </t>
   </si>
   <si>
     <t>Obj</t>
   </si>
   <si>
-    <t>Column Generation Multi-Thread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-Thread Col Generation with Vehicle Capacity (Only if Different) </t>
-  </si>
-  <si>
-    <t>Arcs Cut</t>
-  </si>
-  <si>
-    <t>Final Nbr of Arcs</t>
-  </si>
-  <si>
-    <t>2-index model</t>
-  </si>
-  <si>
-    <t>ARF model</t>
+    <t>l_4_25_1</t>
+  </si>
+  <si>
+    <t>l_4_25_2</t>
+  </si>
+  <si>
+    <t>l_4_25_3</t>
+  </si>
+  <si>
+    <t>l_4_25_4</t>
+  </si>
+  <si>
+    <t>l_4_25_5</t>
+  </si>
+  <si>
+    <t>l_4_35_1</t>
+  </si>
+  <si>
+    <t>l_4_35_2</t>
+  </si>
+  <si>
+    <t>l_4_35_3</t>
+  </si>
+  <si>
+    <t>l_4_35_4</t>
+  </si>
+  <si>
+    <t>l_4_35_5</t>
+  </si>
+  <si>
+    <t>l_4_50_1</t>
+  </si>
+  <si>
+    <t>l_4_50_2</t>
+  </si>
+  <si>
+    <t>l_4_50_3</t>
+  </si>
+  <si>
+    <t>l_4_50_4</t>
+  </si>
+  <si>
+    <t>l_4_50_5</t>
+  </si>
+  <si>
+    <t>l_4_100_1</t>
+  </si>
+  <si>
+    <t>l_4_100_2</t>
+  </si>
+  <si>
+    <t>l_4_100_3</t>
+  </si>
+  <si>
+    <t>l_4_100_4</t>
+  </si>
+  <si>
+    <t>l_4_100_5</t>
+  </si>
+  <si>
+    <t>l_8_25_1</t>
+  </si>
+  <si>
+    <t>l_8_25_2</t>
+  </si>
+  <si>
+    <t>l_8_25_3</t>
+  </si>
+  <si>
+    <t>l_8_25_4</t>
+  </si>
+  <si>
+    <t>l_8_25_5</t>
+  </si>
+  <si>
+    <t>l_8_35_1</t>
+  </si>
+  <si>
+    <t>l_8_35_2</t>
+  </si>
+  <si>
+    <t>l_8_35_3</t>
+  </si>
+  <si>
+    <t>l_8_35_4</t>
+  </si>
+  <si>
+    <t>l_8_35_5</t>
+  </si>
+  <si>
+    <t>l_8_50_1</t>
+  </si>
+  <si>
+    <t>l_8_50_2</t>
+  </si>
+  <si>
+    <t>l_8_50_3</t>
+  </si>
+  <si>
+    <t>l_8_50_4</t>
+  </si>
+  <si>
+    <t>l_8_50_5</t>
+  </si>
+  <si>
+    <t>l_8_100_1</t>
+  </si>
+  <si>
+    <t>l_8_100_2</t>
+  </si>
+  <si>
+    <t>l_8_100_3</t>
+  </si>
+  <si>
+    <t>l_8_100_4</t>
+  </si>
+  <si>
+    <t>l_8_100_5</t>
+  </si>
+  <si>
+    <t>n_4_25_1</t>
+  </si>
+  <si>
+    <t>n_4_25_2</t>
+  </si>
+  <si>
+    <t>n_4_25_3</t>
+  </si>
+  <si>
+    <t>n_4_25_4</t>
+  </si>
+  <si>
+    <t>n_4_25_5</t>
+  </si>
+  <si>
+    <t>n_4_35_1</t>
+  </si>
+  <si>
+    <t>n_4_35_2</t>
+  </si>
+  <si>
+    <t>n_4_35_3</t>
+  </si>
+  <si>
+    <t>n_4_35_4</t>
+  </si>
+  <si>
+    <t>n_4_35_5</t>
+  </si>
+  <si>
+    <t>n_4_50_1</t>
+  </si>
+  <si>
+    <t>n_4_50_2</t>
+  </si>
+  <si>
+    <t>n_4_50_3</t>
+  </si>
+  <si>
+    <t>n_4_50_4</t>
+  </si>
+  <si>
+    <t>n_4_50_5</t>
+  </si>
+  <si>
+    <t>n_4_100_1</t>
+  </si>
+  <si>
+    <t>n_4_100_2</t>
+  </si>
+  <si>
+    <t>n_4_100_3</t>
+  </si>
+  <si>
+    <t>n_4_100_4</t>
+  </si>
+  <si>
+    <t>n_4_100_5</t>
+  </si>
+  <si>
+    <t>n_8_25_1</t>
+  </si>
+  <si>
+    <t>n_8_25_2</t>
+  </si>
+  <si>
+    <t>n_8_25_3</t>
+  </si>
+  <si>
+    <t>n_8_25_4</t>
+  </si>
+  <si>
+    <t>n_8_25_5</t>
+  </si>
+  <si>
+    <t>n_8_35_1</t>
+  </si>
+  <si>
+    <t>n_8_35_2</t>
+  </si>
+  <si>
+    <t>n_8_35_3</t>
+  </si>
+  <si>
+    <t>n_8_35_4</t>
+  </si>
+  <si>
+    <t>n_8_35_5</t>
+  </si>
+  <si>
+    <t>n_8_50_1</t>
+  </si>
+  <si>
+    <t>n_8_50_2</t>
+  </si>
+  <si>
+    <t>n_8_50_3</t>
+  </si>
+  <si>
+    <t>n_8_50_4</t>
+  </si>
+  <si>
+    <t>n_8_50_5</t>
+  </si>
+  <si>
+    <t>n_8_100_1</t>
+  </si>
+  <si>
+    <t>n_8_100_2</t>
+  </si>
+  <si>
+    <t>n_8_100_3</t>
+  </si>
+  <si>
+    <t>n_8_100_4</t>
+  </si>
+  <si>
+    <t>n_8_100_5</t>
+  </si>
+  <si>
+    <t>w_4_25_1</t>
+  </si>
+  <si>
+    <t>w_4_25_2</t>
+  </si>
+  <si>
+    <t>w_4_25_3</t>
+  </si>
+  <si>
+    <t>w_4_25_4</t>
+  </si>
+  <si>
+    <t>w_4_25_5</t>
+  </si>
+  <si>
+    <t>w_4_35_1</t>
+  </si>
+  <si>
+    <t>w_4_35_2</t>
+  </si>
+  <si>
+    <t>w_4_35_3</t>
+  </si>
+  <si>
+    <t>w_4_35_4</t>
+  </si>
+  <si>
+    <t>w_4_35_5</t>
+  </si>
+  <si>
+    <t>w_4_50_1</t>
+  </si>
+  <si>
+    <t>w_4_50_2</t>
+  </si>
+  <si>
+    <t>w_4_50_3</t>
+  </si>
+  <si>
+    <t>w_4_50_4</t>
+  </si>
+  <si>
+    <t>w_4_50_5</t>
+  </si>
+  <si>
+    <t>w_4_100_1</t>
+  </si>
+  <si>
+    <t>w_4_100_2</t>
+  </si>
+  <si>
+    <t>w_4_100_3</t>
+  </si>
+  <si>
+    <t>w_4_100_4</t>
+  </si>
+  <si>
+    <t>w_4_100_5</t>
+  </si>
+  <si>
+    <t>w_8_25_1</t>
+  </si>
+  <si>
+    <t>w_8_25_2</t>
+  </si>
+  <si>
+    <t>w_8_25_3</t>
+  </si>
+  <si>
+    <t>w_8_25_4</t>
+  </si>
+  <si>
+    <t>w_8_25_5</t>
+  </si>
+  <si>
+    <t>w_8_35_1</t>
+  </si>
+  <si>
+    <t>w_8_35_2</t>
+  </si>
+  <si>
+    <t>w_8_35_3</t>
+  </si>
+  <si>
+    <t>w_8_35_4</t>
+  </si>
+  <si>
+    <t>w_8_35_5</t>
+  </si>
+  <si>
+    <t>w_8_50_1</t>
+  </si>
+  <si>
+    <t>w_8_50_2</t>
+  </si>
+  <si>
+    <t>w_8_50_3</t>
+  </si>
+  <si>
+    <t>w_8_50_4</t>
+  </si>
+  <si>
+    <t>w_8_50_5</t>
+  </si>
+  <si>
+    <t>w_8_100_1</t>
+  </si>
+  <si>
+    <t>w_8_100_2</t>
+  </si>
+  <si>
+    <t>w_8_100_3</t>
+  </si>
+  <si>
+    <t>w_8_100_4</t>
+  </si>
+  <si>
+    <t>w_8_100_5</t>
+  </si>
+  <si>
+    <t>Column Amount (For both ways)</t>
   </si>
 </sst>
 </file>
@@ -535,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -634,6 +621,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -677,28 +688,22 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,10 +719,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1036,11 +1037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4933CEF-7C55-43FD-B814-DA59D6A5BBBD}">
-  <dimension ref="A3:AI135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:AJ135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="W10" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1067,266 +1068,271 @@
     <col min="29" max="29" width="15.59765625" customWidth="1"/>
     <col min="30" max="30" width="12.1328125" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
-    <col min="32" max="32" width="18.3984375" customWidth="1"/>
-    <col min="33" max="33" width="21.86328125" customWidth="1"/>
-    <col min="34" max="34" width="18.3984375" customWidth="1"/>
-    <col min="35" max="35" width="32.1328125" customWidth="1"/>
+    <col min="32" max="32" width="32.33203125" customWidth="1"/>
+    <col min="33" max="33" width="18.3984375" customWidth="1"/>
+    <col min="34" max="34" width="21.86328125" customWidth="1"/>
+    <col min="35" max="35" width="18.3984375" customWidth="1"/>
+    <col min="36" max="36" width="32.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:35">
-      <c r="N3" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
+    <row r="3" spans="1:36">
+      <c r="N3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
       <c r="S3" s="18"/>
     </row>
-    <row r="4" spans="1:35">
-      <c r="N4" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
+    <row r="4" spans="1:36">
+      <c r="N4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
       <c r="S4" s="18"/>
     </row>
-    <row r="5" spans="1:35">
-      <c r="N5" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+    <row r="5" spans="1:36">
+      <c r="N5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
       <c r="S5" s="18"/>
     </row>
-    <row r="6" spans="1:35">
-      <c r="N6" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
+    <row r="6" spans="1:36">
+      <c r="N6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
       <c r="S6" s="18"/>
     </row>
-    <row r="7" spans="1:35">
-      <c r="N7" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
+    <row r="7" spans="1:36">
+      <c r="N7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
       <c r="S7" s="18"/>
     </row>
-    <row r="8" spans="1:35">
-      <c r="N8" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
+    <row r="8" spans="1:36">
+      <c r="N8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
       <c r="S8" s="18"/>
     </row>
-    <row r="9" spans="1:35">
-      <c r="N9" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="22"/>
-    </row>
-    <row r="10" spans="1:35">
-      <c r="N10" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="22"/>
-    </row>
-    <row r="11" spans="1:35">
-      <c r="N11" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="22"/>
-    </row>
-    <row r="12" spans="1:35">
-      <c r="N12" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
+    <row r="9" spans="1:36">
+      <c r="N9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="N10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="18"/>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="N11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+    </row>
+    <row r="12" spans="1:36">
+      <c r="N12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
       <c r="S12" s="18"/>
     </row>
-    <row r="14" spans="1:35">
-      <c r="F14" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-    </row>
-    <row r="15" spans="1:35">
+    <row r="14" spans="1:36">
+      <c r="F14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="21"/>
+    </row>
+    <row r="15" spans="1:36">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="V15" s="11" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="W15" s="11" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="X15" s="12" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="Y15" s="13" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="AC15" s="15" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="AD15" s="15" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="AE15" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG15" s="7" t="s">
-        <v>141</v>
+        <v>26</v>
+      </c>
+      <c r="AF15" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="AH15" s="7" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="AI15" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35">
+        <v>28</v>
+      </c>
+      <c r="AJ15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
       <c r="A16" s="3" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
@@ -1354,22 +1360,41 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="5"/>
+      <c r="X16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>4585.8500000000004</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>4585.8500000000004</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>41</v>
+      </c>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AJ16" s="5"/>
+    </row>
+    <row r="17" spans="1:36">
       <c r="A17" s="3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3">
         <v>9</v>
@@ -1397,22 +1422,41 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="5"/>
+      <c r="X17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>4017.93</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>2.52</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>4017.93</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>119</v>
+      </c>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
-    </row>
-    <row r="18" spans="1:35">
+      <c r="AJ17" s="5"/>
+    </row>
+    <row r="18" spans="1:36">
       <c r="A18" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3">
         <v>8</v>
@@ -1440,22 +1484,41 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="5"/>
+      <c r="X18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>4713.75</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="AB18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>4713.75</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>43</v>
+      </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AJ18" s="5"/>
+    </row>
+    <row r="19" spans="1:36">
       <c r="A19" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3">
         <v>9</v>
@@ -1473,8 +1536,8 @@
       <c r="K19" s="6"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="6"/>
@@ -1483,22 +1546,41 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="5"/>
+      <c r="X19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>3872.6</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>3872.6</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>77</v>
+      </c>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
-    </row>
-    <row r="20" spans="1:35">
+      <c r="AJ19" s="5"/>
+    </row>
+    <row r="20" spans="1:36">
       <c r="A20" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3">
         <v>9</v>
@@ -1526,21 +1608,41 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="5"/>
+      <c r="X20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Z20">
+        <v>3397.66</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="AB20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>3397.66</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>2.76</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>98</v>
+      </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
-    </row>
-    <row r="21" spans="1:35">
+      <c r="AJ20" s="5"/>
+    </row>
+    <row r="21" spans="1:36">
       <c r="A21" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3">
         <v>12</v>
@@ -1568,22 +1670,41 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="5"/>
+      <c r="X21" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>5791.61</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>1.73</v>
+      </c>
+      <c r="AB21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>5791.61</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>2.44</v>
+      </c>
+      <c r="AF21" s="6">
+        <v>156</v>
+      </c>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="AJ21" s="5"/>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3">
         <v>11</v>
@@ -1611,22 +1732,41 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="5"/>
+      <c r="X22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>5470.93</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>1.66</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AD22" s="6">
+        <v>5470.93</v>
+      </c>
+      <c r="AE22" s="6">
+        <v>1.77</v>
+      </c>
+      <c r="AF22" s="6">
+        <v>83</v>
+      </c>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
-    </row>
-    <row r="23" spans="1:35">
+      <c r="AJ22" s="5"/>
+    </row>
+    <row r="23" spans="1:36">
       <c r="A23" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3">
         <v>13</v>
@@ -1654,22 +1794,41 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="5"/>
+      <c r="X23" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>1.89</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>5387.35</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>1.89</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>5387.35</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>4.45</v>
+      </c>
+      <c r="AF23" s="6">
+        <v>227</v>
+      </c>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
-    </row>
-    <row r="24" spans="1:35">
+      <c r="AJ23" s="5"/>
+    </row>
+    <row r="24" spans="1:36">
       <c r="A24" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3">
         <v>13</v>
@@ -1697,22 +1856,41 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="5"/>
+      <c r="X24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>6257.5</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>2.04</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>6257.5</v>
+      </c>
+      <c r="AE24" s="6">
+        <v>2.65</v>
+      </c>
+      <c r="AF24" s="6">
+        <v>204</v>
+      </c>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
-    </row>
-    <row r="25" spans="1:35">
+      <c r="AJ24" s="5"/>
+    </row>
+    <row r="25" spans="1:36">
       <c r="A25" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3">
         <v>13</v>
@@ -1740,22 +1918,41 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" s="6"/>
-      <c r="AE25" s="6"/>
-      <c r="AF25" s="5"/>
+      <c r="X25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>2.72</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>5368.02</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>6.92</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>5368.02</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>5.26</v>
+      </c>
+      <c r="AF25" s="6">
+        <v>354</v>
+      </c>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
-    </row>
-    <row r="26" spans="1:35">
+      <c r="AJ25" s="5"/>
+    </row>
+    <row r="26" spans="1:36">
       <c r="A26" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3">
         <v>17</v>
@@ -1783,22 +1980,41 @@
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
-      <c r="AD26" s="6"/>
-      <c r="AE26" s="6"/>
-      <c r="AF26" s="5"/>
+      <c r="X26" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>1.81</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>7351.58</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>5.91</v>
+      </c>
+      <c r="AB26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>7351.58</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>5.82</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>310</v>
+      </c>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-    </row>
-    <row r="27" spans="1:35">
+      <c r="AJ26" s="5"/>
+    </row>
+    <row r="27" spans="1:36">
       <c r="A27" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3">
         <v>17</v>
@@ -1826,22 +2042,41 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="5"/>
+      <c r="X27" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>15.06</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>7253.39</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>31.3</v>
+      </c>
+      <c r="AB27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>21.54</v>
+      </c>
+      <c r="AD27" s="6">
+        <v>7253.39</v>
+      </c>
+      <c r="AE27" s="6">
+        <v>11.45</v>
+      </c>
+      <c r="AF27" s="6">
+        <v>835</v>
+      </c>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
-    </row>
-    <row r="28" spans="1:35">
+      <c r="AJ27" s="5"/>
+    </row>
+    <row r="28" spans="1:36">
       <c r="A28" s="3" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3">
         <v>17</v>
@@ -1869,22 +2104,41 @@
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="5"/>
+      <c r="X28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>11.06</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>7485.02</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>21.58</v>
+      </c>
+      <c r="AB28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>13.76</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>7485.02</v>
+      </c>
+      <c r="AE28" s="6">
+        <v>12.73</v>
+      </c>
+      <c r="AF28" s="6">
+        <v>483</v>
+      </c>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
-    </row>
-    <row r="29" spans="1:35">
+      <c r="AJ28" s="5"/>
+    </row>
+    <row r="29" spans="1:36">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3">
         <v>18</v>
@@ -1912,22 +2166,41 @@
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="5"/>
+      <c r="X29" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>5.09</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>6604.94</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>13.88</v>
+      </c>
+      <c r="AB29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>5.24</v>
+      </c>
+      <c r="AD29" s="6">
+        <v>6604.94</v>
+      </c>
+      <c r="AE29" s="6">
+        <v>9.68</v>
+      </c>
+      <c r="AF29" s="6">
+        <v>728</v>
+      </c>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
-    </row>
-    <row r="30" spans="1:35">
+      <c r="AJ29" s="5"/>
+    </row>
+    <row r="30" spans="1:36">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3">
         <v>17</v>
@@ -1955,22 +2228,41 @@
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="6"/>
-      <c r="AF30" s="5"/>
+      <c r="X30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>6.26</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>7370.88</v>
+      </c>
+      <c r="AA30" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="AB30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="6">
+        <v>6.58</v>
+      </c>
+      <c r="AD30" s="6">
+        <v>7370.88</v>
+      </c>
+      <c r="AE30" s="6">
+        <v>7.34</v>
+      </c>
+      <c r="AF30" s="6">
+        <v>470</v>
+      </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
-    </row>
-    <row r="31" spans="1:35">
+      <c r="AJ30" s="5"/>
+    </row>
+    <row r="31" spans="1:36">
       <c r="A31" s="3" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3">
         <v>35</v>
@@ -1998,22 +2290,41 @@
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="6"/>
-      <c r="AC31" s="6"/>
-      <c r="AD31" s="6"/>
-      <c r="AE31" s="6"/>
-      <c r="AF31" s="5"/>
+      <c r="X31" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>113.5</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>11458.17</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>251.76</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="6">
+        <v>145.09</v>
+      </c>
+      <c r="AD31" s="6">
+        <v>11458.17</v>
+      </c>
+      <c r="AE31" s="6">
+        <v>143.84</v>
+      </c>
+      <c r="AF31" s="6">
+        <v>7332</v>
+      </c>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
-    </row>
-    <row r="32" spans="1:35">
+      <c r="AJ31" s="5"/>
+    </row>
+    <row r="32" spans="1:36">
       <c r="A32" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3">
         <v>35</v>
@@ -2041,22 +2352,41 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="5"/>
+      <c r="X32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>1260.07</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>12856.6</v>
+      </c>
+      <c r="AA32" s="5">
+        <v>2146.88</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="6">
+        <v>3135.85</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>12856.6</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>843.25</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>21802</v>
+      </c>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
-    </row>
-    <row r="33" spans="1:35">
+      <c r="AJ32" s="5"/>
+    </row>
+    <row r="33" spans="1:36">
       <c r="A33" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B33" s="3">
         <v>32</v>
@@ -2084,22 +2414,41 @@
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="5"/>
+      <c r="X33" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>123.9</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>12966.97</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>230.77</v>
+      </c>
+      <c r="AB33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="6">
+        <v>194.13</v>
+      </c>
+      <c r="AD33" s="6">
+        <v>12966.97</v>
+      </c>
+      <c r="AE33" s="6">
+        <v>96.1</v>
+      </c>
+      <c r="AF33" s="6">
+        <v>3041</v>
+      </c>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
-    </row>
-    <row r="34" spans="1:35">
+      <c r="AJ33" s="5"/>
+    </row>
+    <row r="34" spans="1:36">
       <c r="A34" s="3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B34" s="3">
         <v>35</v>
@@ -2127,22 +2476,41 @@
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="5"/>
+      <c r="X34" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>632.54999999999995</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>11111.41</v>
+      </c>
+      <c r="AA34" s="5">
+        <v>1166.6500000000001</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="6">
+        <v>1147.6300000000001</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>11111.41</v>
+      </c>
+      <c r="AE34" s="6">
+        <v>485.64</v>
+      </c>
+      <c r="AF34" s="6">
+        <v>18443</v>
+      </c>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
-    </row>
-    <row r="35" spans="1:35">
+      <c r="AJ34" s="5"/>
+    </row>
+    <row r="35" spans="1:36">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3">
         <v>34</v>
@@ -2170,22 +2538,41 @@
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="5"/>
+      <c r="X35" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>450.38</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>11906.54</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>791.43</v>
+      </c>
+      <c r="AB35" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="6">
+        <v>836.67</v>
+      </c>
+      <c r="AD35" s="6">
+        <v>11906.54</v>
+      </c>
+      <c r="AE35" s="6">
+        <v>318.62</v>
+      </c>
+      <c r="AF35" s="6">
+        <v>10126</v>
+      </c>
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
-    </row>
-    <row r="36" spans="1:35">
+      <c r="AJ35" s="5"/>
+    </row>
+    <row r="36" spans="1:36">
       <c r="A36" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3">
         <v>6</v>
@@ -2213,22 +2600,41 @@
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="5"/>
+      <c r="X36" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>3681.02</v>
+      </c>
+      <c r="AA36" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="AB36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="AD36" s="6">
+        <v>3681.02</v>
+      </c>
+      <c r="AE36" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="AF36" s="6">
+        <v>22</v>
+      </c>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-    </row>
-    <row r="37" spans="1:35">
+      <c r="AJ36" s="5"/>
+    </row>
+    <row r="37" spans="1:36">
       <c r="A37" s="3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B37" s="3">
         <v>5</v>
@@ -2256,22 +2662,41 @@
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="5"/>
+      <c r="X37" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>4195.28</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="AB37" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="AD37" s="6">
+        <v>4195.28</v>
+      </c>
+      <c r="AE37" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="AF37" s="6">
+        <v>12</v>
+      </c>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
-    </row>
-    <row r="38" spans="1:35">
+      <c r="AJ37" s="5"/>
+    </row>
+    <row r="38" spans="1:36">
       <c r="A38" s="3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3">
         <v>7</v>
@@ -2299,22 +2724,41 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="5"/>
+      <c r="X38" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>3976.11</v>
+      </c>
+      <c r="AA38" s="5">
+        <v>1.51</v>
+      </c>
+      <c r="AB38" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="AD38" s="6">
+        <v>3976.11</v>
+      </c>
+      <c r="AE38" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="AF38" s="6">
+        <v>35</v>
+      </c>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
-    </row>
-    <row r="39" spans="1:35">
+      <c r="AJ38" s="5"/>
+    </row>
+    <row r="39" spans="1:36">
       <c r="A39" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3">
         <v>6</v>
@@ -2342,22 +2786,41 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="5"/>
+      <c r="X39" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>4130.91</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="AB39" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="AD39" s="6">
+        <v>4130.91</v>
+      </c>
+      <c r="AE39" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="AF39" s="6">
+        <v>15</v>
+      </c>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
-    </row>
-    <row r="40" spans="1:35">
+      <c r="AJ39" s="5"/>
+    </row>
+    <row r="40" spans="1:36">
       <c r="A40" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B40" s="3">
         <v>6</v>
@@ -2385,22 +2848,41 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="5"/>
+      <c r="X40" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>6136.95</v>
+      </c>
+      <c r="AA40" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="AB40" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="AD40" s="6">
+        <v>6136.95</v>
+      </c>
+      <c r="AE40" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AF40" s="6">
+        <v>11</v>
+      </c>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
-    </row>
-    <row r="41" spans="1:35">
+      <c r="AJ40" s="5"/>
+    </row>
+    <row r="41" spans="1:36">
       <c r="A41" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B41" s="3">
         <v>8</v>
@@ -2428,22 +2910,41 @@
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="5"/>
+      <c r="X41" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>5758.68</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="AB41" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="AD41" s="6">
+        <v>5758.68</v>
+      </c>
+      <c r="AE41" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="AF41" s="6">
+        <v>24</v>
+      </c>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
-    </row>
-    <row r="42" spans="1:35">
+      <c r="AJ41" s="5"/>
+    </row>
+    <row r="42" spans="1:36">
       <c r="A42" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B42" s="3">
         <v>7</v>
@@ -2471,22 +2972,41 @@
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="5"/>
+      <c r="X42" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z42" s="5">
+        <v>5832.2</v>
+      </c>
+      <c r="AA42" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB42" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AD42" s="6">
+        <v>5832.2</v>
+      </c>
+      <c r="AE42" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="AF42" s="6">
+        <v>16</v>
+      </c>
       <c r="AG42" s="5"/>
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
-    </row>
-    <row r="43" spans="1:35">
+      <c r="AJ42" s="5"/>
+    </row>
+    <row r="43" spans="1:36">
       <c r="A43" s="3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B43" s="3">
         <v>7</v>
@@ -2514,22 +3034,41 @@
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="5"/>
+      <c r="X43" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>5656.36</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="AB43" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="AD43" s="6">
+        <v>5656.36</v>
+      </c>
+      <c r="AE43" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="AF43" s="6">
+        <v>23</v>
+      </c>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
-    </row>
-    <row r="44" spans="1:35">
+      <c r="AJ43" s="5"/>
+    </row>
+    <row r="44" spans="1:36">
       <c r="A44" s="3" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3">
         <v>8</v>
@@ -2557,22 +3096,41 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="6"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="6"/>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="5"/>
+      <c r="X44" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="Z44" s="5">
+        <v>5597.22</v>
+      </c>
+      <c r="AA44" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AB44" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="AD44" s="6">
+        <v>5597.22</v>
+      </c>
+      <c r="AE44" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="AF44" s="6">
+        <v>33</v>
+      </c>
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
-    </row>
-    <row r="45" spans="1:35">
+      <c r="AJ44" s="5"/>
+    </row>
+    <row r="45" spans="1:36">
       <c r="A45" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3">
         <v>6</v>
@@ -2600,22 +3158,41 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="5"/>
+      <c r="X45" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Z45" s="5">
+        <v>6693.24</v>
+      </c>
+      <c r="AA45" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AB45" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AD45" s="6">
+        <v>6693.24</v>
+      </c>
+      <c r="AE45" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="AF45" s="6">
+        <v>8</v>
+      </c>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
-    </row>
-    <row r="46" spans="1:35">
+      <c r="AJ45" s="5"/>
+    </row>
+    <row r="46" spans="1:36">
       <c r="A46" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B46" s="3">
         <v>10</v>
@@ -2643,22 +3220,41 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="6"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="6"/>
-      <c r="AE46" s="6"/>
-      <c r="AF46" s="5"/>
+      <c r="X46" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Z46" s="5">
+        <v>6221.15</v>
+      </c>
+      <c r="AA46" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="AB46" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AD46" s="6">
+        <v>6221.15</v>
+      </c>
+      <c r="AE46" s="6">
+        <v>1.47</v>
+      </c>
+      <c r="AF46" s="6">
+        <v>45</v>
+      </c>
       <c r="AG46" s="5"/>
       <c r="AH46" s="5"/>
       <c r="AI46" s="5"/>
-    </row>
-    <row r="47" spans="1:35">
+      <c r="AJ46" s="5"/>
+    </row>
+    <row r="47" spans="1:36">
       <c r="A47" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B47" s="3">
         <v>10</v>
@@ -2686,22 +3282,41 @@
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="6"/>
-      <c r="AC47" s="6"/>
-      <c r="AD47" s="6"/>
-      <c r="AE47" s="6"/>
-      <c r="AF47" s="5"/>
+      <c r="X47" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Z47" s="5">
+        <v>8221.5400000000009</v>
+      </c>
+      <c r="AA47" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="AB47" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AD47" s="6">
+        <v>8221.5400000000009</v>
+      </c>
+      <c r="AE47" s="6">
+        <v>1.89</v>
+      </c>
+      <c r="AF47" s="6">
+        <v>35</v>
+      </c>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
-    </row>
-    <row r="48" spans="1:35">
+      <c r="AJ47" s="5"/>
+    </row>
+    <row r="48" spans="1:36">
       <c r="A48" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B48" s="3">
         <v>12</v>
@@ -2729,22 +3344,41 @@
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="6"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="6"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="5"/>
+      <c r="X48" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Z48" s="5">
+        <v>7071.04</v>
+      </c>
+      <c r="AA48" s="5">
+        <v>7.25</v>
+      </c>
+      <c r="AB48" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="AD48" s="6">
+        <v>7071.04</v>
+      </c>
+      <c r="AE48" s="6">
+        <v>4.16</v>
+      </c>
+      <c r="AF48" s="6">
+        <v>100</v>
+      </c>
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5"/>
-    </row>
-    <row r="49" spans="1:35">
+      <c r="AJ48" s="5"/>
+    </row>
+    <row r="49" spans="1:36">
       <c r="A49" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B49" s="3">
         <v>10</v>
@@ -2772,22 +3406,41 @@
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="6"/>
-      <c r="AC49" s="6"/>
-      <c r="AD49" s="6"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="5"/>
+      <c r="X49" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="Z49" s="5">
+        <v>6621.83</v>
+      </c>
+      <c r="AA49" s="5">
+        <v>1.61</v>
+      </c>
+      <c r="AB49" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="AD49" s="6">
+        <v>6621.83</v>
+      </c>
+      <c r="AE49" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="AF49" s="6">
+        <v>38</v>
+      </c>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
       <c r="AI49" s="5"/>
-    </row>
-    <row r="50" spans="1:35">
+      <c r="AJ49" s="5"/>
+    </row>
+    <row r="50" spans="1:36">
       <c r="A50" s="3" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B50" s="3">
         <v>12</v>
@@ -2815,22 +3468,41 @@
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="5"/>
+      <c r="X50" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>8650.61</v>
+      </c>
+      <c r="AA50" s="5">
+        <v>2.81</v>
+      </c>
+      <c r="AB50" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="6">
+        <v>1.24</v>
+      </c>
+      <c r="AD50" s="6">
+        <v>8650.61</v>
+      </c>
+      <c r="AE50" s="6">
+        <v>2.93</v>
+      </c>
+      <c r="AF50" s="6">
+        <v>80</v>
+      </c>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
-    </row>
-    <row r="51" spans="1:35">
+      <c r="AJ50" s="5"/>
+    </row>
+    <row r="51" spans="1:36">
       <c r="A51" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B51" s="3">
         <v>22</v>
@@ -2858,22 +3530,41 @@
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="6"/>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="6"/>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="5"/>
+      <c r="X51" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>10.56</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>12784.17</v>
+      </c>
+      <c r="AA51" s="5">
+        <v>20.96</v>
+      </c>
+      <c r="AB51" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="6">
+        <v>13</v>
+      </c>
+      <c r="AD51" s="6">
+        <v>12784.17</v>
+      </c>
+      <c r="AE51" s="6">
+        <v>14.38</v>
+      </c>
+      <c r="AF51" s="6">
+        <v>398</v>
+      </c>
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
       <c r="AI51" s="5"/>
-    </row>
-    <row r="52" spans="1:35">
+      <c r="AJ51" s="5"/>
+    </row>
+    <row r="52" spans="1:36">
       <c r="A52" s="3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B52" s="3">
         <v>19</v>
@@ -2901,22 +3592,41 @@
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="6"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="6"/>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="5"/>
+      <c r="X52" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="Z52" s="5">
+        <v>15043.14</v>
+      </c>
+      <c r="AA52" s="5">
+        <v>14.65</v>
+      </c>
+      <c r="AB52" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="6">
+        <v>12.66</v>
+      </c>
+      <c r="AD52" s="6">
+        <v>15043.14</v>
+      </c>
+      <c r="AE52" s="6">
+        <v>13.24</v>
+      </c>
+      <c r="AF52" s="6">
+        <v>162</v>
+      </c>
       <c r="AG52" s="5"/>
       <c r="AH52" s="5"/>
       <c r="AI52" s="5"/>
-    </row>
-    <row r="53" spans="1:35">
+      <c r="AJ52" s="5"/>
+    </row>
+    <row r="53" spans="1:36">
       <c r="A53" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B53" s="3">
         <v>22</v>
@@ -2944,22 +3654,41 @@
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="6"/>
-      <c r="AC53" s="6"/>
-      <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
-      <c r="AF53" s="5"/>
+      <c r="X53" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="5">
+        <v>12.46</v>
+      </c>
+      <c r="Z53" s="5">
+        <v>14917.3</v>
+      </c>
+      <c r="AA53" s="5">
+        <v>22.82</v>
+      </c>
+      <c r="AB53" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="6">
+        <v>15.62</v>
+      </c>
+      <c r="AD53" s="6">
+        <v>14917.3</v>
+      </c>
+      <c r="AE53" s="6">
+        <v>13.83</v>
+      </c>
+      <c r="AF53" s="6">
+        <v>226</v>
+      </c>
       <c r="AG53" s="5"/>
       <c r="AH53" s="5"/>
       <c r="AI53" s="5"/>
-    </row>
-    <row r="54" spans="1:35">
+      <c r="AJ53" s="5"/>
+    </row>
+    <row r="54" spans="1:36">
       <c r="A54" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B54" s="3">
         <v>22</v>
@@ -2987,22 +3716,41 @@
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="6"/>
-      <c r="AC54" s="6"/>
-      <c r="AD54" s="6"/>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="5"/>
+      <c r="X54" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="5">
+        <v>8.94</v>
+      </c>
+      <c r="Z54" s="5">
+        <v>12720.69</v>
+      </c>
+      <c r="AA54" s="5">
+        <v>17.73</v>
+      </c>
+      <c r="AB54" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="6">
+        <v>10.96</v>
+      </c>
+      <c r="AD54" s="6">
+        <v>12720.69</v>
+      </c>
+      <c r="AE54" s="6">
+        <v>16.13</v>
+      </c>
+      <c r="AF54" s="6">
+        <v>325</v>
+      </c>
       <c r="AG54" s="5"/>
       <c r="AH54" s="5"/>
       <c r="AI54" s="5"/>
-    </row>
-    <row r="55" spans="1:35">
+      <c r="AJ54" s="5"/>
+    </row>
+    <row r="55" spans="1:36">
       <c r="A55" s="3" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B55" s="3">
         <v>23</v>
@@ -3030,22 +3778,41 @@
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="6"/>
-      <c r="AC55" s="6"/>
-      <c r="AD55" s="6"/>
-      <c r="AE55" s="6"/>
-      <c r="AF55" s="5"/>
+      <c r="X55" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="5">
+        <v>9.84</v>
+      </c>
+      <c r="Z55" s="5">
+        <v>14109.6</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>19.29</v>
+      </c>
+      <c r="AB55" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="AD55" s="6">
+        <v>14109.6</v>
+      </c>
+      <c r="AE55" s="6">
+        <v>15.86</v>
+      </c>
+      <c r="AF55" s="6">
+        <v>354</v>
+      </c>
       <c r="AG55" s="5"/>
       <c r="AH55" s="5"/>
       <c r="AI55" s="5"/>
-    </row>
-    <row r="56" spans="1:35">
+      <c r="AJ55" s="5"/>
+    </row>
+    <row r="56" spans="1:36">
       <c r="A56" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B56" s="3">
         <v>8</v>
@@ -3073,22 +3840,41 @@
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="6"/>
-      <c r="AC56" s="6"/>
-      <c r="AD56" s="6"/>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="5"/>
+      <c r="X56" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>5108.8599999999997</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB56" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="6">
+        <v>5108.8599999999997</v>
+      </c>
+      <c r="AE56" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="AF56" s="6">
+        <v>24</v>
+      </c>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AI56" s="5"/>
-    </row>
-    <row r="57" spans="1:35">
+      <c r="AJ56" s="5"/>
+    </row>
+    <row r="57" spans="1:36">
       <c r="A57" s="3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B57" s="3">
         <v>9</v>
@@ -3116,22 +3902,41 @@
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="6"/>
-      <c r="AC57" s="6"/>
-      <c r="AD57" s="6"/>
-      <c r="AE57" s="6"/>
-      <c r="AF57" s="5"/>
+      <c r="X57" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>4550.87</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AB57" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="AD57" s="6">
+        <v>4550.87</v>
+      </c>
+      <c r="AE57" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="AF57" s="6">
+        <v>58</v>
+      </c>
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
       <c r="AI57" s="5"/>
-    </row>
-    <row r="58" spans="1:35">
+      <c r="AJ57" s="5"/>
+    </row>
+    <row r="58" spans="1:36">
       <c r="A58" s="3" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B58" s="3">
         <v>8</v>
@@ -3159,22 +3964,41 @@
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="5"/>
+      <c r="X58" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="Z58" s="5">
+        <v>5594.93</v>
+      </c>
+      <c r="AA58" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AB58" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="AD58" s="6">
+        <v>5594.93</v>
+      </c>
+      <c r="AE58" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF58" s="6">
+        <v>20</v>
+      </c>
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
-    </row>
-    <row r="59" spans="1:35">
+      <c r="AJ58" s="5"/>
+    </row>
+    <row r="59" spans="1:36">
       <c r="A59" s="3" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B59" s="3">
         <v>9</v>
@@ -3202,22 +4026,41 @@
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="5"/>
+      <c r="X59" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>4232.79</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="AB59" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="6">
+        <v>4232.79</v>
+      </c>
+      <c r="AE59" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="AF59" s="6">
+        <v>34</v>
+      </c>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
       <c r="AI59" s="5"/>
-    </row>
-    <row r="60" spans="1:35">
+      <c r="AJ59" s="5"/>
+    </row>
+    <row r="60" spans="1:36">
       <c r="A60" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B60" s="3">
         <v>9</v>
@@ -3245,22 +4088,41 @@
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="6"/>
-      <c r="AC60" s="6"/>
-      <c r="AD60" s="6"/>
-      <c r="AE60" s="6"/>
-      <c r="AF60" s="5"/>
+      <c r="X60" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>4186.68</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="AB60" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="AD60" s="6">
+        <v>4186.68</v>
+      </c>
+      <c r="AE60" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="AF60" s="6">
+        <v>45</v>
+      </c>
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
       <c r="AI60" s="5"/>
-    </row>
-    <row r="61" spans="1:35">
+      <c r="AJ60" s="5"/>
+    </row>
+    <row r="61" spans="1:36">
       <c r="A61" s="3" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B61" s="3">
         <v>13</v>
@@ -3288,22 +4150,41 @@
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
       <c r="W61" s="6"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="6"/>
-      <c r="AC61" s="6"/>
-      <c r="AD61" s="6"/>
-      <c r="AE61" s="6"/>
-      <c r="AF61" s="5"/>
+      <c r="X61" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="Z61" s="5">
+        <v>5466.67</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="AB61" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="AD61" s="6">
+        <v>5466.67</v>
+      </c>
+      <c r="AE61" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="AF61" s="6">
+        <v>88</v>
+      </c>
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
       <c r="AI61" s="5"/>
-    </row>
-    <row r="62" spans="1:35">
+      <c r="AJ61" s="5"/>
+    </row>
+    <row r="62" spans="1:36">
       <c r="A62" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B62" s="3">
         <v>12</v>
@@ -3331,22 +4212,41 @@
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
       <c r="W62" s="6"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="6"/>
-      <c r="AC62" s="6"/>
-      <c r="AD62" s="6"/>
-      <c r="AE62" s="6"/>
-      <c r="AF62" s="5"/>
+      <c r="X62" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="Z62" s="5">
+        <v>7349.34</v>
+      </c>
+      <c r="AA62" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AB62" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="AD62" s="6">
+        <v>7349.34</v>
+      </c>
+      <c r="AE62" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="AF62" s="6">
+        <v>56</v>
+      </c>
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
       <c r="AI62" s="5"/>
-    </row>
-    <row r="63" spans="1:35">
+      <c r="AJ62" s="5"/>
+    </row>
+    <row r="63" spans="1:36">
       <c r="A63" s="3" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B63" s="3">
         <v>10</v>
@@ -3374,22 +4274,41 @@
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
-      <c r="AB63" s="6"/>
-      <c r="AC63" s="6"/>
-      <c r="AD63" s="6"/>
-      <c r="AE63" s="6"/>
-      <c r="AF63" s="5"/>
+      <c r="X63" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>6471.1</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AB63" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="AD63" s="6">
+        <v>6471.1</v>
+      </c>
+      <c r="AE63" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF63" s="6">
+        <v>40</v>
+      </c>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
       <c r="AI63" s="5"/>
-    </row>
-    <row r="64" spans="1:35">
+      <c r="AJ63" s="5"/>
+    </row>
+    <row r="64" spans="1:36">
       <c r="A64" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B64" s="3">
         <v>11</v>
@@ -3417,22 +4336,41 @@
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
-      <c r="AE64" s="6"/>
-      <c r="AF64" s="5"/>
+      <c r="X64" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Z64" s="5">
+        <v>7563.38</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="AB64" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AD64" s="6">
+        <v>7563.38</v>
+      </c>
+      <c r="AE64" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="AF64" s="6">
+        <v>39</v>
+      </c>
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
       <c r="AI64" s="5"/>
-    </row>
-    <row r="65" spans="1:35">
+      <c r="AJ64" s="5"/>
+    </row>
+    <row r="65" spans="1:36">
       <c r="A65" s="3" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B65" s="3">
         <v>12</v>
@@ -3460,22 +4398,41 @@
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
-      <c r="AB65" s="6"/>
-      <c r="AC65" s="6"/>
-      <c r="AD65" s="6"/>
-      <c r="AE65" s="6"/>
-      <c r="AF65" s="5"/>
+      <c r="X65" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>6279.57</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AB65" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AD65" s="6">
+        <v>6279.57</v>
+      </c>
+      <c r="AE65" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AF65" s="6">
+        <v>55</v>
+      </c>
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
       <c r="AI65" s="5"/>
-    </row>
-    <row r="66" spans="1:35">
+      <c r="AJ65" s="5"/>
+    </row>
+    <row r="66" spans="1:36">
       <c r="A66" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B66" s="3">
         <v>17</v>
@@ -3503,22 +4460,41 @@
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="6"/>
-      <c r="AC66" s="6"/>
-      <c r="AD66" s="6"/>
-      <c r="AE66" s="6"/>
-      <c r="AF66" s="5"/>
+      <c r="X66" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="Z66" s="5">
+        <v>8695.27</v>
+      </c>
+      <c r="AA66" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB66" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="AD66" s="6">
+        <v>8695.27</v>
+      </c>
+      <c r="AE66" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AF66" s="6">
+        <v>113</v>
+      </c>
       <c r="AG66" s="5"/>
       <c r="AH66" s="5"/>
       <c r="AI66" s="5"/>
-    </row>
-    <row r="67" spans="1:35">
+      <c r="AJ66" s="5"/>
+    </row>
+    <row r="67" spans="1:36">
       <c r="A67" s="3" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="B67" s="3">
         <v>17</v>
@@ -3546,22 +4522,41 @@
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
-      <c r="AB67" s="6"/>
-      <c r="AC67" s="6"/>
-      <c r="AD67" s="6"/>
-      <c r="AE67" s="6"/>
-      <c r="AF67" s="5"/>
+      <c r="X67" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y67" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z67" s="5">
+        <v>9812.6200000000008</v>
+      </c>
+      <c r="AA67" s="5">
+        <v>1.61</v>
+      </c>
+      <c r="AB67" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AD67" s="6">
+        <v>9812.6200000000008</v>
+      </c>
+      <c r="AE67" s="6">
+        <v>1.64</v>
+      </c>
+      <c r="AF67" s="6">
+        <v>266</v>
+      </c>
       <c r="AG67" s="5"/>
       <c r="AH67" s="5"/>
       <c r="AI67" s="5"/>
-    </row>
-    <row r="68" spans="1:35">
+      <c r="AJ67" s="5"/>
+    </row>
+    <row r="68" spans="1:36">
       <c r="A68" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B68" s="3">
         <v>17</v>
@@ -3589,22 +4584,41 @@
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
-      <c r="AB68" s="6"/>
-      <c r="AC68" s="6"/>
-      <c r="AD68" s="6"/>
-      <c r="AE68" s="6"/>
-      <c r="AF68" s="5"/>
+      <c r="X68" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="Z68" s="5">
+        <v>9677.74</v>
+      </c>
+      <c r="AA68" s="5">
+        <v>1.64</v>
+      </c>
+      <c r="AB68" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC68" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="AD68" s="6">
+        <v>9677.74</v>
+      </c>
+      <c r="AE68" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="AF68" s="6">
+        <v>127</v>
+      </c>
       <c r="AG68" s="5"/>
       <c r="AH68" s="5"/>
       <c r="AI68" s="5"/>
-    </row>
-    <row r="69" spans="1:35">
+      <c r="AJ68" s="5"/>
+    </row>
+    <row r="69" spans="1:36">
       <c r="A69" s="3" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B69" s="3">
         <v>18</v>
@@ -3632,22 +4646,41 @@
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
       <c r="W69" s="6"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
-      <c r="AB69" s="6"/>
-      <c r="AC69" s="6"/>
-      <c r="AD69" s="6"/>
-      <c r="AE69" s="6"/>
-      <c r="AF69" s="5"/>
+      <c r="X69" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="Z69" s="5">
+        <v>7733.56</v>
+      </c>
+      <c r="AA69" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="AB69" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="AD69" s="6">
+        <v>7733.56</v>
+      </c>
+      <c r="AE69" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="AF69" s="6">
+        <v>167</v>
+      </c>
       <c r="AG69" s="5"/>
       <c r="AH69" s="5"/>
       <c r="AI69" s="5"/>
-    </row>
-    <row r="70" spans="1:35">
+      <c r="AJ69" s="5"/>
+    </row>
+    <row r="70" spans="1:36">
       <c r="A70" s="3" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B70" s="3">
         <v>17</v>
@@ -3675,22 +4708,41 @@
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="5"/>
-      <c r="AB70" s="6"/>
-      <c r="AC70" s="6"/>
-      <c r="AD70" s="6"/>
-      <c r="AE70" s="6"/>
-      <c r="AF70" s="5"/>
+      <c r="X70" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y70" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Z70" s="5">
+        <v>8695.94</v>
+      </c>
+      <c r="AA70" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="AB70" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC70" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="AD70" s="6">
+        <v>8695.94</v>
+      </c>
+      <c r="AE70" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AF70" s="6">
+        <v>149</v>
+      </c>
       <c r="AG70" s="5"/>
       <c r="AH70" s="5"/>
       <c r="AI70" s="5"/>
-    </row>
-    <row r="71" spans="1:35">
+      <c r="AJ70" s="5"/>
+    </row>
+    <row r="71" spans="1:36">
       <c r="A71" s="3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B71" s="3">
         <v>35</v>
@@ -3718,22 +4770,41 @@
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="6"/>
-      <c r="AC71" s="6"/>
-      <c r="AD71" s="6"/>
-      <c r="AE71" s="6"/>
-      <c r="AF71" s="5"/>
+      <c r="X71" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="Z71" s="5">
+        <v>14515.76</v>
+      </c>
+      <c r="AA71" s="5">
+        <v>6.13</v>
+      </c>
+      <c r="AB71" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="AD71" s="6">
+        <v>14515.76</v>
+      </c>
+      <c r="AE71" s="6">
+        <v>6.62</v>
+      </c>
+      <c r="AF71" s="6">
+        <v>1052</v>
+      </c>
       <c r="AG71" s="5"/>
       <c r="AH71" s="5"/>
       <c r="AI71" s="5"/>
-    </row>
-    <row r="72" spans="1:35">
+      <c r="AJ71" s="5"/>
+    </row>
+    <row r="72" spans="1:36">
       <c r="A72" s="3" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B72" s="3">
         <v>35</v>
@@ -3761,22 +4832,41 @@
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="6"/>
-      <c r="AC72" s="6"/>
-      <c r="AD72" s="6"/>
-      <c r="AE72" s="6"/>
-      <c r="AF72" s="5"/>
+      <c r="X72" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="5">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="Z72" s="5">
+        <v>16366.69</v>
+      </c>
+      <c r="AA72" s="5">
+        <v>62.44</v>
+      </c>
+      <c r="AB72" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="6">
+        <v>21.72</v>
+      </c>
+      <c r="AD72" s="6">
+        <v>16366.69</v>
+      </c>
+      <c r="AE72" s="6">
+        <v>49.66</v>
+      </c>
+      <c r="AF72" s="6">
+        <v>4452</v>
+      </c>
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
       <c r="AI72" s="5"/>
-    </row>
-    <row r="73" spans="1:35">
+      <c r="AJ72" s="5"/>
+    </row>
+    <row r="73" spans="1:36">
       <c r="A73" s="3" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B73" s="3">
         <v>32</v>
@@ -3804,22 +4894,41 @@
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="6"/>
-      <c r="AC73" s="6"/>
-      <c r="AD73" s="6"/>
-      <c r="AE73" s="6"/>
-      <c r="AF73" s="5"/>
+      <c r="X73" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="5">
+        <v>3.68</v>
+      </c>
+      <c r="Z73" s="5">
+        <v>16137.86</v>
+      </c>
+      <c r="AA73" s="5">
+        <v>10.51</v>
+      </c>
+      <c r="AB73" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="6">
+        <v>3.68</v>
+      </c>
+      <c r="AD73" s="6">
+        <v>16137.86</v>
+      </c>
+      <c r="AE73" s="6">
+        <v>11.04</v>
+      </c>
+      <c r="AF73" s="6">
+        <v>527</v>
+      </c>
       <c r="AG73" s="5"/>
       <c r="AH73" s="5"/>
       <c r="AI73" s="5"/>
-    </row>
-    <row r="74" spans="1:35">
+      <c r="AJ73" s="5"/>
+    </row>
+    <row r="74" spans="1:36">
       <c r="A74" s="3" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B74" s="3">
         <v>35</v>
@@ -3847,22 +4956,41 @@
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="5"/>
-      <c r="AB74" s="6"/>
-      <c r="AC74" s="6"/>
-      <c r="AD74" s="6"/>
-      <c r="AE74" s="6"/>
-      <c r="AF74" s="5"/>
+      <c r="X74" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="Z74" s="5">
+        <v>14087.59</v>
+      </c>
+      <c r="AA74" s="5">
+        <v>15.06</v>
+      </c>
+      <c r="AB74" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="AD74" s="6">
+        <v>14087.59</v>
+      </c>
+      <c r="AE74" s="6">
+        <v>17.18</v>
+      </c>
+      <c r="AF74" s="6">
+        <v>2323</v>
+      </c>
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
       <c r="AI74" s="5"/>
-    </row>
-    <row r="75" spans="1:35">
+      <c r="AJ74" s="5"/>
+    </row>
+    <row r="75" spans="1:36">
       <c r="A75" s="3" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B75" s="3">
         <v>34</v>
@@ -3890,22 +5018,41 @@
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="6"/>
-      <c r="AC75" s="6"/>
-      <c r="AD75" s="6"/>
-      <c r="AE75" s="6"/>
-      <c r="AF75" s="5"/>
+      <c r="X75" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="Z75" s="5">
+        <v>14967.32</v>
+      </c>
+      <c r="AA75" s="5">
+        <v>23.3</v>
+      </c>
+      <c r="AB75" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="AD75" s="6">
+        <v>14967.32</v>
+      </c>
+      <c r="AE75" s="6">
+        <v>23.92</v>
+      </c>
+      <c r="AF75" s="6">
+        <v>1959</v>
+      </c>
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
       <c r="AI75" s="5"/>
-    </row>
-    <row r="76" spans="1:35">
+      <c r="AJ75" s="5"/>
+    </row>
+    <row r="76" spans="1:36">
       <c r="A76" s="3" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B76" s="3">
         <v>6</v>
@@ -3921,34 +5068,65 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
+      <c r="L76" s="5">
+        <v>1</v>
+      </c>
+      <c r="M76" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N76" s="5">
+        <v>4410.46</v>
+      </c>
+      <c r="O76" s="5">
+        <v>4410.46</v>
+      </c>
+      <c r="P76" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>0.11</v>
+      </c>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="6"/>
-      <c r="AC76" s="6"/>
-      <c r="AD76" s="6"/>
-      <c r="AE76" s="6"/>
-      <c r="AF76" s="5"/>
+      <c r="X76" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y76" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Z76" s="5">
+        <v>4410.46</v>
+      </c>
+      <c r="AA76" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="AB76" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AD76" s="6">
+        <v>4410.46</v>
+      </c>
+      <c r="AE76" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="AF76" s="6">
+        <v>13</v>
+      </c>
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
       <c r="AI76" s="5"/>
-    </row>
-    <row r="77" spans="1:35">
+      <c r="AJ76" s="5"/>
+    </row>
+    <row r="77" spans="1:36">
       <c r="A77" s="3" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B77" s="3">
         <v>5</v>
@@ -3958,40 +5136,83 @@
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
+      <c r="F77" s="6">
+        <v>1</v>
+      </c>
+      <c r="G77" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="H77" s="6">
+        <v>4223.51</v>
+      </c>
+      <c r="I77" s="6">
+        <v>4223.51</v>
+      </c>
+      <c r="J77" s="6">
+        <v>0</v>
+      </c>
+      <c r="K77" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L77" s="5">
+        <v>1</v>
+      </c>
+      <c r="M77" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="N77" s="5">
+        <v>4223.51</v>
+      </c>
+      <c r="O77" s="5">
+        <v>4223.51</v>
+      </c>
+      <c r="P77" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>0.16</v>
+      </c>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="6"/>
-      <c r="AC77" s="6"/>
-      <c r="AD77" s="6"/>
-      <c r="AE77" s="6"/>
-      <c r="AF77" s="5"/>
+      <c r="X77" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y77" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="Z77" s="5">
+        <v>4223.51</v>
+      </c>
+      <c r="AA77" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB77" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="AD77" s="6">
+        <v>4223.51</v>
+      </c>
+      <c r="AE77" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="AF77" s="6">
+        <v>11</v>
+      </c>
       <c r="AG77" s="5"/>
       <c r="AH77" s="5"/>
       <c r="AI77" s="5"/>
-    </row>
-    <row r="78" spans="1:35">
+      <c r="AJ77" s="5"/>
+    </row>
+    <row r="78" spans="1:36">
       <c r="A78" s="3" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B78" s="3">
         <v>7</v>
@@ -4019,22 +5240,41 @@
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="6"/>
-      <c r="AC78" s="6"/>
-      <c r="AD78" s="6"/>
-      <c r="AE78" s="6"/>
-      <c r="AF78" s="5"/>
+      <c r="X78" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z78" s="5">
+        <v>4119.59</v>
+      </c>
+      <c r="AA78" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="AB78" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="AD78" s="6">
+        <v>4119.59</v>
+      </c>
+      <c r="AE78" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="AF78" s="6">
+        <v>23</v>
+      </c>
       <c r="AG78" s="5"/>
       <c r="AH78" s="5"/>
       <c r="AI78" s="5"/>
-    </row>
-    <row r="79" spans="1:35">
+      <c r="AJ78" s="5"/>
+    </row>
+    <row r="79" spans="1:36">
       <c r="A79" s="3" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B79" s="3">
         <v>6</v>
@@ -4056,28 +5296,59 @@
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="5"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="6"/>
-      <c r="AC79" s="6"/>
-      <c r="AD79" s="6"/>
-      <c r="AE79" s="6"/>
-      <c r="AF79" s="5"/>
+      <c r="R79" s="6">
+        <v>1</v>
+      </c>
+      <c r="S79" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="T79" s="6">
+        <v>4340.3</v>
+      </c>
+      <c r="U79" s="6">
+        <v>4340.3</v>
+      </c>
+      <c r="V79" s="6">
+        <v>0</v>
+      </c>
+      <c r="W79" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="X79" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y79" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="5">
+        <v>4340.3</v>
+      </c>
+      <c r="AA79" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB79" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="6">
+        <v>4340.3</v>
+      </c>
+      <c r="AE79" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="AF79" s="6">
+        <v>10</v>
+      </c>
       <c r="AG79" s="5"/>
       <c r="AH79" s="5"/>
       <c r="AI79" s="5"/>
-    </row>
-    <row r="80" spans="1:35">
+      <c r="AJ79" s="5"/>
+    </row>
+    <row r="80" spans="1:36">
       <c r="A80" s="3" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B80" s="3">
         <v>6</v>
@@ -4105,22 +5376,41 @@
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="6"/>
-      <c r="AC80" s="6"/>
-      <c r="AD80" s="6"/>
-      <c r="AE80" s="6"/>
-      <c r="AF80" s="5"/>
+      <c r="X80" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Z80" s="5">
+        <v>6136.95</v>
+      </c>
+      <c r="AA80" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="AB80" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AD80" s="6">
+        <v>6136.95</v>
+      </c>
+      <c r="AE80" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AF80" s="6">
+        <v>10</v>
+      </c>
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
       <c r="AI80" s="5"/>
-    </row>
-    <row r="81" spans="1:35">
+      <c r="AJ80" s="5"/>
+    </row>
+    <row r="81" spans="1:36">
       <c r="A81" s="3" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B81" s="3">
         <v>7</v>
@@ -4148,22 +5438,41 @@
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="6"/>
-      <c r="AC81" s="6"/>
-      <c r="AD81" s="6"/>
-      <c r="AE81" s="6"/>
-      <c r="AF81" s="5"/>
+      <c r="X81" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="5">
+        <v>6083.33</v>
+      </c>
+      <c r="AA81" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AB81" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="6">
+        <v>6083.33</v>
+      </c>
+      <c r="AE81" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AF81" s="6">
+        <v>8</v>
+      </c>
       <c r="AG81" s="5"/>
       <c r="AH81" s="5"/>
       <c r="AI81" s="5"/>
-    </row>
-    <row r="82" spans="1:35">
+      <c r="AJ81" s="5"/>
+    </row>
+    <row r="82" spans="1:36">
       <c r="A82" s="3" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B82" s="3">
         <v>7</v>
@@ -4191,22 +5500,41 @@
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="6"/>
-      <c r="AC82" s="6"/>
-      <c r="AD82" s="6"/>
-      <c r="AE82" s="6"/>
-      <c r="AF82" s="5"/>
+      <c r="X82" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="Z82" s="5">
+        <v>6623.03</v>
+      </c>
+      <c r="AA82" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="AB82" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC82" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="AD82" s="6">
+        <v>6623.03</v>
+      </c>
+      <c r="AE82" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AF82" s="6">
+        <v>13</v>
+      </c>
       <c r="AG82" s="5"/>
       <c r="AH82" s="5"/>
       <c r="AI82" s="5"/>
-    </row>
-    <row r="83" spans="1:35">
+      <c r="AJ82" s="5"/>
+    </row>
+    <row r="83" spans="1:36">
       <c r="A83" s="3" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B83" s="3">
         <v>9</v>
@@ -4234,22 +5562,41 @@
       <c r="U83" s="6"/>
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="6"/>
-      <c r="AC83" s="6"/>
-      <c r="AD83" s="6"/>
-      <c r="AE83" s="6"/>
-      <c r="AF83" s="5"/>
+      <c r="X83" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="Z83" s="5">
+        <v>6187.48</v>
+      </c>
+      <c r="AA83" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AB83" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC83" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AD83" s="6">
+        <v>6187.48</v>
+      </c>
+      <c r="AE83" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AF83" s="6">
+        <v>23</v>
+      </c>
       <c r="AG83" s="5"/>
       <c r="AH83" s="5"/>
       <c r="AI83" s="5"/>
-    </row>
-    <row r="84" spans="1:35">
+      <c r="AJ83" s="5"/>
+    </row>
+    <row r="84" spans="1:36">
       <c r="A84" s="3" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B84" s="3">
         <v>7</v>
@@ -4277,22 +5624,41 @@
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="6"/>
-      <c r="AC84" s="6"/>
-      <c r="AD84" s="6"/>
-      <c r="AE84" s="6"/>
-      <c r="AF84" s="5"/>
+      <c r="X84" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y84" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Z84" s="5">
+        <v>6343.26</v>
+      </c>
+      <c r="AA84" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB84" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC84" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AD84" s="6">
+        <v>6343.26</v>
+      </c>
+      <c r="AE84" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="AF84" s="6">
+        <v>13</v>
+      </c>
       <c r="AG84" s="5"/>
       <c r="AH84" s="5"/>
       <c r="AI84" s="5"/>
-    </row>
-    <row r="85" spans="1:35">
+      <c r="AJ84" s="5"/>
+    </row>
+    <row r="85" spans="1:36">
       <c r="A85" s="3" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B85" s="3">
         <v>8</v>
@@ -4320,22 +5686,41 @@
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="6"/>
-      <c r="AC85" s="6"/>
-      <c r="AD85" s="6"/>
-      <c r="AE85" s="6"/>
-      <c r="AF85" s="5"/>
+      <c r="X85" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y85" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="Z85" s="5">
+        <v>6408.99</v>
+      </c>
+      <c r="AA85" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="AB85" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="AD85" s="6">
+        <v>6408.99</v>
+      </c>
+      <c r="AE85" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="AF85" s="6">
+        <v>20</v>
+      </c>
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
       <c r="AI85" s="5"/>
-    </row>
-    <row r="86" spans="1:35">
+      <c r="AJ85" s="5"/>
+    </row>
+    <row r="86" spans="1:36">
       <c r="A86" s="3" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B86" s="3">
         <v>10</v>
@@ -4363,22 +5748,41 @@
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
-      <c r="AB86" s="6"/>
-      <c r="AC86" s="6"/>
-      <c r="AD86" s="6"/>
-      <c r="AE86" s="6"/>
-      <c r="AF86" s="5"/>
+      <c r="X86" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y86" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Z86" s="5">
+        <v>7631.97</v>
+      </c>
+      <c r="AA86" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="AB86" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC86" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AD86" s="6">
+        <v>7631.97</v>
+      </c>
+      <c r="AE86" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="AF86" s="6">
+        <v>21</v>
+      </c>
       <c r="AG86" s="5"/>
       <c r="AH86" s="5"/>
       <c r="AI86" s="5"/>
-    </row>
-    <row r="87" spans="1:35">
+      <c r="AJ86" s="5"/>
+    </row>
+    <row r="87" spans="1:36">
       <c r="A87" s="3" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B87" s="3">
         <v>10</v>
@@ -4406,22 +5810,41 @@
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="6"/>
-      <c r="AC87" s="6"/>
-      <c r="AD87" s="6"/>
-      <c r="AE87" s="6"/>
-      <c r="AF87" s="5"/>
+      <c r="X87" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y87" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="Z87" s="5">
+        <v>9206.34</v>
+      </c>
+      <c r="AA87" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="AB87" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC87" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="AD87" s="6">
+        <v>9206.34</v>
+      </c>
+      <c r="AE87" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="AF87" s="6">
+        <v>27</v>
+      </c>
       <c r="AG87" s="5"/>
       <c r="AH87" s="5"/>
       <c r="AI87" s="5"/>
-    </row>
-    <row r="88" spans="1:35">
+      <c r="AJ87" s="5"/>
+    </row>
+    <row r="88" spans="1:36">
       <c r="A88" s="3" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B88" s="3">
         <v>12</v>
@@ -4449,22 +5872,41 @@
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-      <c r="AA88" s="5"/>
-      <c r="AB88" s="6"/>
-      <c r="AC88" s="6"/>
-      <c r="AD88" s="6"/>
-      <c r="AE88" s="6"/>
-      <c r="AF88" s="5"/>
+      <c r="X88" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y88" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="Z88" s="5">
+        <v>8594.07</v>
+      </c>
+      <c r="AA88" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="AB88" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC88" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="AD88" s="6">
+        <v>8594.07</v>
+      </c>
+      <c r="AE88" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="AF88" s="6">
+        <v>50</v>
+      </c>
       <c r="AG88" s="5"/>
       <c r="AH88" s="5"/>
       <c r="AI88" s="5"/>
-    </row>
-    <row r="89" spans="1:35">
+      <c r="AJ88" s="5"/>
+    </row>
+    <row r="89" spans="1:36">
       <c r="A89" s="3" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B89" s="3">
         <v>10</v>
@@ -4492,22 +5934,41 @@
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
-      <c r="AB89" s="6"/>
-      <c r="AC89" s="6"/>
-      <c r="AD89" s="6"/>
-      <c r="AE89" s="6"/>
-      <c r="AF89" s="5"/>
+      <c r="X89" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="Z89" s="5">
+        <v>7974.34</v>
+      </c>
+      <c r="AA89" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="AB89" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="AD89" s="6">
+        <v>7974.34</v>
+      </c>
+      <c r="AE89" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="AF89" s="6">
+        <v>17</v>
+      </c>
       <c r="AG89" s="5"/>
       <c r="AH89" s="5"/>
       <c r="AI89" s="5"/>
-    </row>
-    <row r="90" spans="1:35">
+      <c r="AJ89" s="5"/>
+    </row>
+    <row r="90" spans="1:36">
       <c r="A90" s="3" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B90" s="3">
         <v>12</v>
@@ -4535,22 +5996,41 @@
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
-      <c r="AB90" s="6"/>
-      <c r="AC90" s="6"/>
-      <c r="AD90" s="6"/>
-      <c r="AE90" s="6"/>
-      <c r="AF90" s="5"/>
+      <c r="X90" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y90" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="Z90" s="5">
+        <v>9201.65</v>
+      </c>
+      <c r="AA90" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB90" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC90" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="AD90" s="6">
+        <v>9201.65</v>
+      </c>
+      <c r="AE90" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="AF90" s="6">
+        <v>42</v>
+      </c>
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
       <c r="AI90" s="5"/>
-    </row>
-    <row r="91" spans="1:35">
+      <c r="AJ90" s="5"/>
+    </row>
+    <row r="91" spans="1:36">
       <c r="A91" s="3" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B91" s="3">
         <v>22</v>
@@ -4578,22 +6058,41 @@
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
-      <c r="X91" s="5"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
-      <c r="AB91" s="6"/>
-      <c r="AC91" s="6"/>
-      <c r="AD91" s="6"/>
-      <c r="AE91" s="6"/>
-      <c r="AF91" s="5"/>
+      <c r="X91" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="Z91" s="5">
+        <v>15832.66</v>
+      </c>
+      <c r="AA91" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="AB91" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="AD91" s="6">
+        <v>15832.66</v>
+      </c>
+      <c r="AE91" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="AF91" s="6">
+        <v>121</v>
+      </c>
       <c r="AG91" s="5"/>
       <c r="AH91" s="5"/>
       <c r="AI91" s="5"/>
-    </row>
-    <row r="92" spans="1:35">
+      <c r="AJ91" s="5"/>
+    </row>
+    <row r="92" spans="1:36">
       <c r="A92" s="3" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="B92" s="3">
         <v>19</v>
@@ -4621,22 +6120,41 @@
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
-      <c r="X92" s="5"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
-      <c r="AB92" s="6"/>
-      <c r="AC92" s="6"/>
-      <c r="AD92" s="6"/>
-      <c r="AE92" s="6"/>
-      <c r="AF92" s="5"/>
+      <c r="X92" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Z92" s="5">
+        <v>16683.82</v>
+      </c>
+      <c r="AA92" s="5">
+        <v>1.69</v>
+      </c>
+      <c r="AB92" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AD92" s="6">
+        <v>16683.82</v>
+      </c>
+      <c r="AE92" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="AF92" s="6">
+        <v>83</v>
+      </c>
       <c r="AG92" s="5"/>
       <c r="AH92" s="5"/>
       <c r="AI92" s="5"/>
-    </row>
-    <row r="93" spans="1:35">
+      <c r="AJ92" s="5"/>
+    </row>
+    <row r="93" spans="1:36">
       <c r="A93" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B93" s="3">
         <v>22</v>
@@ -4664,22 +6182,41 @@
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="5"/>
-      <c r="AB93" s="6"/>
-      <c r="AC93" s="6"/>
-      <c r="AD93" s="6"/>
-      <c r="AE93" s="6"/>
-      <c r="AF93" s="5"/>
+      <c r="X93" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y93" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="Z93" s="5">
+        <v>18761.400000000001</v>
+      </c>
+      <c r="AA93" s="5">
+        <v>2.78</v>
+      </c>
+      <c r="AB93" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC93" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="AD93" s="6">
+        <v>18761.400000000001</v>
+      </c>
+      <c r="AE93" s="6">
+        <v>2.93</v>
+      </c>
+      <c r="AF93" s="6">
+        <v>90</v>
+      </c>
       <c r="AG93" s="5"/>
       <c r="AH93" s="5"/>
       <c r="AI93" s="5"/>
-    </row>
-    <row r="94" spans="1:35">
+      <c r="AJ93" s="5"/>
+    </row>
+    <row r="94" spans="1:36">
       <c r="A94" s="3" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B94" s="3">
         <v>22</v>
@@ -4707,22 +6244,41 @@
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
-      <c r="X94" s="5"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
-      <c r="AA94" s="5"/>
-      <c r="AB94" s="6"/>
-      <c r="AC94" s="6"/>
-      <c r="AD94" s="6"/>
-      <c r="AE94" s="6"/>
-      <c r="AF94" s="5"/>
+      <c r="X94" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y94" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="Z94" s="5">
+        <v>16057.05</v>
+      </c>
+      <c r="AA94" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AB94" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC94" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="AD94" s="6">
+        <v>16057.05</v>
+      </c>
+      <c r="AE94" s="6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AF94" s="6">
+        <v>85</v>
+      </c>
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
       <c r="AI94" s="5"/>
-    </row>
-    <row r="95" spans="1:35">
+      <c r="AJ94" s="5"/>
+    </row>
+    <row r="95" spans="1:36">
       <c r="A95" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B95" s="3">
         <v>23</v>
@@ -4750,22 +6306,41 @@
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
-      <c r="X95" s="5"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5"/>
-      <c r="AB95" s="6"/>
-      <c r="AC95" s="6"/>
-      <c r="AD95" s="6"/>
-      <c r="AE95" s="6"/>
-      <c r="AF95" s="5"/>
+      <c r="X95" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="Z95" s="5">
+        <v>17136.07</v>
+      </c>
+      <c r="AA95" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="AB95" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC95" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="AD95" s="6">
+        <v>17136.07</v>
+      </c>
+      <c r="AE95" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="AF95" s="6">
+        <v>123</v>
+      </c>
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
       <c r="AI95" s="5"/>
-    </row>
-    <row r="96" spans="1:35">
+      <c r="AJ95" s="5"/>
+    </row>
+    <row r="96" spans="1:36">
       <c r="A96" s="3" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B96" s="3">
         <v>8</v>
@@ -4793,22 +6368,41 @@
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
-      <c r="X96" s="5"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="5"/>
-      <c r="AA96" s="5"/>
-      <c r="AB96" s="6"/>
-      <c r="AC96" s="6"/>
-      <c r="AD96" s="6"/>
-      <c r="AE96" s="6"/>
-      <c r="AF96" s="5"/>
+      <c r="X96" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y96" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Z96" s="5">
+        <v>3979.5</v>
+      </c>
+      <c r="AA96" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="AB96" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC96" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AD96" s="6">
+        <v>3979.5</v>
+      </c>
+      <c r="AE96" s="6">
+        <v>1.04</v>
+      </c>
+      <c r="AF96" s="6">
+        <v>116</v>
+      </c>
       <c r="AG96" s="5"/>
       <c r="AH96" s="5"/>
       <c r="AI96" s="5"/>
-    </row>
-    <row r="97" spans="1:35">
+      <c r="AJ96" s="5"/>
+    </row>
+    <row r="97" spans="1:36">
       <c r="A97" s="3" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B97" s="3">
         <v>9</v>
@@ -4836,22 +6430,41 @@
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
-      <c r="X97" s="5"/>
-      <c r="Y97" s="5"/>
-      <c r="Z97" s="5"/>
-      <c r="AA97" s="5"/>
-      <c r="AB97" s="6"/>
-      <c r="AC97" s="6"/>
-      <c r="AD97" s="6"/>
-      <c r="AE97" s="6"/>
-      <c r="AF97" s="5"/>
+      <c r="X97" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y97" s="5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Z97" s="5">
+        <v>3101.33</v>
+      </c>
+      <c r="AA97" s="5">
+        <v>3.02</v>
+      </c>
+      <c r="AB97" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC97" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD97" s="6">
+        <v>3101.33</v>
+      </c>
+      <c r="AE97" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="AF97" s="6">
+        <v>313</v>
+      </c>
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
       <c r="AI97" s="5"/>
-    </row>
-    <row r="98" spans="1:35">
+      <c r="AJ97" s="5"/>
+    </row>
+    <row r="98" spans="1:36">
       <c r="A98" s="3" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B98" s="3">
         <v>8</v>
@@ -4879,22 +6492,41 @@
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
-      <c r="X98" s="5"/>
-      <c r="Y98" s="5"/>
-      <c r="Z98" s="5"/>
-      <c r="AA98" s="5"/>
-      <c r="AB98" s="6"/>
-      <c r="AC98" s="6"/>
-      <c r="AD98" s="6"/>
-      <c r="AE98" s="6"/>
-      <c r="AF98" s="5"/>
+      <c r="X98" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y98" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="Z98" s="5">
+        <v>3152.73</v>
+      </c>
+      <c r="AA98" s="5">
+        <v>1.35</v>
+      </c>
+      <c r="AB98" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC98" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="AD98" s="6">
+        <v>3152.73</v>
+      </c>
+      <c r="AE98" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="AF98" s="6">
+        <v>121</v>
+      </c>
       <c r="AG98" s="5"/>
       <c r="AH98" s="5"/>
       <c r="AI98" s="5"/>
-    </row>
-    <row r="99" spans="1:35">
+      <c r="AJ98" s="5"/>
+    </row>
+    <row r="99" spans="1:36">
       <c r="A99" s="3" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B99" s="3">
         <v>9</v>
@@ -4922,22 +6554,41 @@
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
-      <c r="X99" s="5"/>
-      <c r="Y99" s="5"/>
-      <c r="Z99" s="5"/>
-      <c r="AA99" s="5"/>
-      <c r="AB99" s="6"/>
-      <c r="AC99" s="6"/>
-      <c r="AD99" s="6"/>
-      <c r="AE99" s="6"/>
-      <c r="AF99" s="5"/>
+      <c r="X99" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="Z99" s="5">
+        <v>2624.49</v>
+      </c>
+      <c r="AA99" s="5">
+        <v>2.91</v>
+      </c>
+      <c r="AB99" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="6">
+        <v>1.03</v>
+      </c>
+      <c r="AD99" s="6">
+        <v>2624.49</v>
+      </c>
+      <c r="AE99" s="6">
+        <v>3.63</v>
+      </c>
+      <c r="AF99" s="6">
+        <v>416</v>
+      </c>
       <c r="AG99" s="5"/>
       <c r="AH99" s="5"/>
       <c r="AI99" s="5"/>
-    </row>
-    <row r="100" spans="1:35">
+      <c r="AJ99" s="5"/>
+    </row>
+    <row r="100" spans="1:36">
       <c r="A100" s="3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B100" s="3">
         <v>9</v>
@@ -4965,22 +6616,41 @@
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
       <c r="W100" s="6"/>
-      <c r="X100" s="5"/>
-      <c r="Y100" s="5"/>
-      <c r="Z100" s="5"/>
-      <c r="AA100" s="5"/>
-      <c r="AB100" s="6"/>
-      <c r="AC100" s="6"/>
-      <c r="AD100" s="6"/>
-      <c r="AE100" s="6"/>
-      <c r="AF100" s="5"/>
+      <c r="X100" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y100" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="Z100" s="5">
+        <v>2541.46</v>
+      </c>
+      <c r="AA100" s="5">
+        <v>3.81</v>
+      </c>
+      <c r="AB100" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC100" s="6">
+        <v>1.52</v>
+      </c>
+      <c r="AD100" s="6">
+        <v>2541.46</v>
+      </c>
+      <c r="AE100" s="6">
+        <v>4.41</v>
+      </c>
+      <c r="AF100" s="6">
+        <v>318</v>
+      </c>
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
       <c r="AI100" s="5"/>
-    </row>
-    <row r="101" spans="1:35">
+      <c r="AJ100" s="5"/>
+    </row>
+    <row r="101" spans="1:36">
       <c r="A101" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B101" s="3">
         <v>13</v>
@@ -5008,22 +6678,41 @@
       <c r="U101" s="6"/>
       <c r="V101" s="6"/>
       <c r="W101" s="6"/>
-      <c r="X101" s="5"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-      <c r="AA101" s="5"/>
-      <c r="AB101" s="6"/>
-      <c r="AC101" s="6"/>
-      <c r="AD101" s="6"/>
-      <c r="AE101" s="6"/>
-      <c r="AF101" s="5"/>
+      <c r="X101" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y101" s="5">
+        <v>7.42</v>
+      </c>
+      <c r="Z101" s="5">
+        <v>3852.25</v>
+      </c>
+      <c r="AA101" s="5">
+        <v>19.38</v>
+      </c>
+      <c r="AB101" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC101" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="AD101" s="6">
+        <v>3852.25</v>
+      </c>
+      <c r="AE101" s="6">
+        <v>9.73</v>
+      </c>
+      <c r="AF101" s="6">
+        <v>1639</v>
+      </c>
       <c r="AG101" s="5"/>
       <c r="AH101" s="5"/>
       <c r="AI101" s="5"/>
-    </row>
-    <row r="102" spans="1:35">
+      <c r="AJ101" s="5"/>
+    </row>
+    <row r="102" spans="1:36">
       <c r="A102" s="3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="B102" s="3">
         <v>13</v>
@@ -5051,22 +6740,41 @@
       <c r="U102" s="6"/>
       <c r="V102" s="6"/>
       <c r="W102" s="6"/>
-      <c r="X102" s="5"/>
-      <c r="Y102" s="5"/>
-      <c r="Z102" s="5"/>
-      <c r="AA102" s="5"/>
-      <c r="AB102" s="6"/>
-      <c r="AC102" s="6"/>
-      <c r="AD102" s="6"/>
-      <c r="AE102" s="6"/>
-      <c r="AF102" s="5"/>
+      <c r="X102" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y102" s="5">
+        <v>18.37</v>
+      </c>
+      <c r="Z102" s="5">
+        <v>3147.04</v>
+      </c>
+      <c r="AA102" s="5">
+        <v>41.18</v>
+      </c>
+      <c r="AB102" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC102" s="6">
+        <v>20.37</v>
+      </c>
+      <c r="AD102" s="6">
+        <v>3147.04</v>
+      </c>
+      <c r="AE102" s="6">
+        <v>14.48</v>
+      </c>
+      <c r="AF102" s="6">
+        <v>2807</v>
+      </c>
       <c r="AG102" s="5"/>
       <c r="AH102" s="5"/>
       <c r="AI102" s="5"/>
-    </row>
-    <row r="103" spans="1:35">
+      <c r="AJ102" s="5"/>
+    </row>
+    <row r="103" spans="1:36">
       <c r="A103" s="3" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B103" s="3">
         <v>12</v>
@@ -5094,22 +6802,41 @@
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
-      <c r="X103" s="5"/>
-      <c r="Y103" s="5"/>
-      <c r="Z103" s="5"/>
-      <c r="AA103" s="5"/>
-      <c r="AB103" s="6"/>
-      <c r="AC103" s="6"/>
-      <c r="AD103" s="6"/>
-      <c r="AE103" s="6"/>
-      <c r="AF103" s="5"/>
+      <c r="X103" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y103" s="5">
+        <v>15.92</v>
+      </c>
+      <c r="Z103" s="5">
+        <v>4027.81</v>
+      </c>
+      <c r="AA103" s="5">
+        <v>32.35</v>
+      </c>
+      <c r="AB103" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC103" s="6">
+        <v>23.64</v>
+      </c>
+      <c r="AD103" s="6">
+        <v>4027.81</v>
+      </c>
+      <c r="AE103" s="6">
+        <v>13.22</v>
+      </c>
+      <c r="AF103" s="6">
+        <v>1196</v>
+      </c>
       <c r="AG103" s="5"/>
       <c r="AH103" s="5"/>
       <c r="AI103" s="5"/>
-    </row>
-    <row r="104" spans="1:35">
+      <c r="AJ103" s="5"/>
+    </row>
+    <row r="104" spans="1:36">
       <c r="A104" s="3" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="B104" s="3">
         <v>13</v>
@@ -5137,22 +6864,41 @@
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
       <c r="W104" s="6"/>
-      <c r="X104" s="5"/>
-      <c r="Y104" s="5"/>
-      <c r="Z104" s="5"/>
-      <c r="AA104" s="5"/>
-      <c r="AB104" s="6"/>
-      <c r="AC104" s="6"/>
-      <c r="AD104" s="6"/>
-      <c r="AE104" s="6"/>
-      <c r="AF104" s="5"/>
+      <c r="X104" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y104" s="5">
+        <v>12.86</v>
+      </c>
+      <c r="Z104" s="5">
+        <v>4180.76</v>
+      </c>
+      <c r="AA104" s="5">
+        <v>30.38</v>
+      </c>
+      <c r="AB104" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC104" s="6">
+        <v>18.3</v>
+      </c>
+      <c r="AD104" s="6">
+        <v>4180.76</v>
+      </c>
+      <c r="AE104" s="6">
+        <v>10.93</v>
+      </c>
+      <c r="AF104" s="6">
+        <v>1419</v>
+      </c>
       <c r="AG104" s="5"/>
       <c r="AH104" s="5"/>
       <c r="AI104" s="5"/>
-    </row>
-    <row r="105" spans="1:35">
+      <c r="AJ104" s="5"/>
+    </row>
+    <row r="105" spans="1:36">
       <c r="A105" s="3" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B105" s="3">
         <v>12</v>
@@ -5180,22 +6926,41 @@
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
       <c r="W105" s="6"/>
-      <c r="X105" s="5"/>
-      <c r="Y105" s="5"/>
-      <c r="Z105" s="5"/>
-      <c r="AA105" s="5"/>
-      <c r="AB105" s="6"/>
-      <c r="AC105" s="6"/>
-      <c r="AD105" s="6"/>
-      <c r="AE105" s="6"/>
-      <c r="AF105" s="5"/>
+      <c r="X105" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y105" s="5">
+        <v>7.89</v>
+      </c>
+      <c r="Z105" s="5">
+        <v>4204.84</v>
+      </c>
+      <c r="AA105" s="5">
+        <v>18.05</v>
+      </c>
+      <c r="AB105" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC105" s="6">
+        <v>8.77</v>
+      </c>
+      <c r="AD105" s="6">
+        <v>4204.84</v>
+      </c>
+      <c r="AE105" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AF105" s="6">
+        <v>998</v>
+      </c>
       <c r="AG105" s="5"/>
       <c r="AH105" s="5"/>
       <c r="AI105" s="5"/>
-    </row>
-    <row r="106" spans="1:35">
+      <c r="AJ105" s="5"/>
+    </row>
+    <row r="106" spans="1:36">
       <c r="A106" s="3" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B106" s="3">
         <v>17</v>
@@ -5223,22 +6988,41 @@
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
       <c r="W106" s="6"/>
-      <c r="X106" s="5"/>
-      <c r="Y106" s="5"/>
-      <c r="Z106" s="5"/>
-      <c r="AA106" s="5"/>
-      <c r="AB106" s="6"/>
-      <c r="AC106" s="6"/>
-      <c r="AD106" s="6"/>
-      <c r="AE106" s="6"/>
-      <c r="AF106" s="5"/>
+      <c r="X106" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y106" s="5">
+        <v>53.15</v>
+      </c>
+      <c r="Z106" s="5">
+        <v>5211.1499999999996</v>
+      </c>
+      <c r="AA106" s="5">
+        <v>114.16</v>
+      </c>
+      <c r="AB106" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC106" s="6">
+        <v>58.31</v>
+      </c>
+      <c r="AD106" s="6">
+        <v>5211.1499999999996</v>
+      </c>
+      <c r="AE106" s="6">
+        <v>43.31</v>
+      </c>
+      <c r="AF106" s="6">
+        <v>5341</v>
+      </c>
       <c r="AG106" s="5"/>
       <c r="AH106" s="5"/>
       <c r="AI106" s="5"/>
-    </row>
-    <row r="107" spans="1:35">
+      <c r="AJ106" s="5"/>
+    </row>
+    <row r="107" spans="1:36">
       <c r="A107" s="3" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B107" s="3">
         <v>17</v>
@@ -5266,22 +7050,41 @@
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
       <c r="W107" s="6"/>
-      <c r="X107" s="5"/>
-      <c r="Y107" s="5"/>
-      <c r="Z107" s="5"/>
-      <c r="AA107" s="5"/>
-      <c r="AB107" s="6"/>
-      <c r="AC107" s="6"/>
-      <c r="AD107" s="6"/>
-      <c r="AE107" s="6"/>
-      <c r="AF107" s="5"/>
+      <c r="X107" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y107" s="5">
+        <v>113.64</v>
+      </c>
+      <c r="Z107" s="5">
+        <v>5243.58</v>
+      </c>
+      <c r="AA107" s="5">
+        <v>218.54</v>
+      </c>
+      <c r="AB107" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC107" s="6">
+        <v>305.44</v>
+      </c>
+      <c r="AD107" s="6">
+        <v>5243.58</v>
+      </c>
+      <c r="AE107" s="6">
+        <v>100.82</v>
+      </c>
+      <c r="AF107" s="6">
+        <v>6605</v>
+      </c>
       <c r="AG107" s="5"/>
       <c r="AH107" s="5"/>
       <c r="AI107" s="5"/>
-    </row>
-    <row r="108" spans="1:35">
+      <c r="AJ107" s="5"/>
+    </row>
+    <row r="108" spans="1:36">
       <c r="A108" s="3" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B108" s="3">
         <v>17</v>
@@ -5309,22 +7112,41 @@
       <c r="U108" s="6"/>
       <c r="V108" s="6"/>
       <c r="W108" s="6"/>
-      <c r="X108" s="5"/>
-      <c r="Y108" s="5"/>
-      <c r="Z108" s="5"/>
-      <c r="AA108" s="5"/>
-      <c r="AB108" s="6"/>
-      <c r="AC108" s="6"/>
-      <c r="AD108" s="6"/>
-      <c r="AE108" s="6"/>
-      <c r="AF108" s="5"/>
+      <c r="X108" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y108" s="5">
+        <v>23.23</v>
+      </c>
+      <c r="Z108" s="5">
+        <v>5662.22</v>
+      </c>
+      <c r="AA108" s="5">
+        <v>59.52</v>
+      </c>
+      <c r="AB108" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC108" s="6">
+        <v>25.11</v>
+      </c>
+      <c r="AD108" s="6">
+        <v>5662.22</v>
+      </c>
+      <c r="AE108" s="6">
+        <v>22.58</v>
+      </c>
+      <c r="AF108" s="6">
+        <v>3387</v>
+      </c>
       <c r="AG108" s="5"/>
       <c r="AH108" s="5"/>
       <c r="AI108" s="5"/>
-    </row>
-    <row r="109" spans="1:35">
+      <c r="AJ108" s="5"/>
+    </row>
+    <row r="109" spans="1:36">
       <c r="A109" s="3" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B109" s="3">
         <v>18</v>
@@ -5352,22 +7174,41 @@
       <c r="U109" s="6"/>
       <c r="V109" s="6"/>
       <c r="W109" s="6"/>
-      <c r="X109" s="5"/>
-      <c r="Y109" s="5"/>
-      <c r="Z109" s="5"/>
-      <c r="AA109" s="5"/>
-      <c r="AB109" s="6"/>
-      <c r="AC109" s="6"/>
-      <c r="AD109" s="6"/>
-      <c r="AE109" s="6"/>
-      <c r="AF109" s="5"/>
+      <c r="X109" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y109" s="5">
+        <v>145.49</v>
+      </c>
+      <c r="Z109" s="5">
+        <v>4424.79</v>
+      </c>
+      <c r="AA109" s="5">
+        <v>329.67</v>
+      </c>
+      <c r="AB109" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC109" s="6">
+        <v>154.69</v>
+      </c>
+      <c r="AD109" s="6">
+        <v>4424.79</v>
+      </c>
+      <c r="AE109" s="6">
+        <v>101.22</v>
+      </c>
+      <c r="AF109" s="6">
+        <v>18896</v>
+      </c>
       <c r="AG109" s="5"/>
       <c r="AH109" s="5"/>
       <c r="AI109" s="5"/>
-    </row>
-    <row r="110" spans="1:35">
+      <c r="AJ109" s="5"/>
+    </row>
+    <row r="110" spans="1:36">
       <c r="A110" s="3" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B110" s="3">
         <v>17</v>
@@ -5395,22 +7236,41 @@
       <c r="U110" s="6"/>
       <c r="V110" s="6"/>
       <c r="W110" s="6"/>
-      <c r="X110" s="5"/>
-      <c r="Y110" s="5"/>
-      <c r="Z110" s="5"/>
-      <c r="AA110" s="5"/>
-      <c r="AB110" s="6"/>
-      <c r="AC110" s="6"/>
-      <c r="AD110" s="6"/>
-      <c r="AE110" s="6"/>
-      <c r="AF110" s="5"/>
+      <c r="X110" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y110" s="5">
+        <v>49.83</v>
+      </c>
+      <c r="Z110" s="5">
+        <v>4973.2700000000004</v>
+      </c>
+      <c r="AA110" s="5">
+        <v>111.73</v>
+      </c>
+      <c r="AB110" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC110" s="6">
+        <v>62.45</v>
+      </c>
+      <c r="AD110" s="6">
+        <v>4973.2700000000004</v>
+      </c>
+      <c r="AE110" s="6">
+        <v>35.1</v>
+      </c>
+      <c r="AF110" s="6">
+        <v>5036</v>
+      </c>
       <c r="AG110" s="5"/>
       <c r="AH110" s="5"/>
       <c r="AI110" s="5"/>
-    </row>
-    <row r="111" spans="1:35">
+      <c r="AJ110" s="5"/>
+    </row>
+    <row r="111" spans="1:36">
       <c r="A111" s="3" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B111" s="3">
         <v>35</v>
@@ -5446,14 +7306,15 @@
       <c r="AC111" s="6"/>
       <c r="AD111" s="6"/>
       <c r="AE111" s="6"/>
-      <c r="AF111" s="5"/>
+      <c r="AF111" s="6"/>
       <c r="AG111" s="5"/>
       <c r="AH111" s="5"/>
       <c r="AI111" s="5"/>
-    </row>
-    <row r="112" spans="1:35">
+      <c r="AJ111" s="5"/>
+    </row>
+    <row r="112" spans="1:36">
       <c r="A112" s="3" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B112" s="3">
         <v>35</v>
@@ -5489,14 +7350,15 @@
       <c r="AC112" s="6"/>
       <c r="AD112" s="6"/>
       <c r="AE112" s="6"/>
-      <c r="AF112" s="5"/>
+      <c r="AF112" s="6"/>
       <c r="AG112" s="5"/>
       <c r="AH112" s="5"/>
       <c r="AI112" s="5"/>
-    </row>
-    <row r="113" spans="1:35">
+      <c r="AJ112" s="5"/>
+    </row>
+    <row r="113" spans="1:36">
       <c r="A113" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="B113" s="3">
         <v>32</v>
@@ -5524,22 +7386,41 @@
       <c r="U113" s="6"/>
       <c r="V113" s="6"/>
       <c r="W113" s="6"/>
-      <c r="X113" s="5"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-      <c r="AA113" s="5"/>
-      <c r="AB113" s="6"/>
-      <c r="AC113" s="6"/>
-      <c r="AD113" s="6"/>
-      <c r="AE113" s="6"/>
-      <c r="AF113" s="5"/>
+      <c r="X113" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y113" s="5">
+        <v>974.01</v>
+      </c>
+      <c r="Z113" s="5">
+        <v>9353.43</v>
+      </c>
+      <c r="AA113" s="5">
+        <v>2290.77</v>
+      </c>
+      <c r="AB113" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC113" s="6">
+        <v>1251.8900000000001</v>
+      </c>
+      <c r="AD113" s="6">
+        <v>9353.43</v>
+      </c>
+      <c r="AE113" s="6">
+        <v>1554.7</v>
+      </c>
+      <c r="AF113" s="6">
+        <v>66618</v>
+      </c>
       <c r="AG113" s="5"/>
       <c r="AH113" s="5"/>
       <c r="AI113" s="5"/>
-    </row>
-    <row r="114" spans="1:35">
+      <c r="AJ113" s="5"/>
+    </row>
+    <row r="114" spans="1:36">
       <c r="A114" s="3" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B114" s="3">
         <v>35</v>
@@ -5575,14 +7456,15 @@
       <c r="AC114" s="6"/>
       <c r="AD114" s="6"/>
       <c r="AE114" s="6"/>
-      <c r="AF114" s="5"/>
+      <c r="AF114" s="6"/>
       <c r="AG114" s="5"/>
       <c r="AH114" s="5"/>
       <c r="AI114" s="5"/>
-    </row>
-    <row r="115" spans="1:35">
+      <c r="AJ114" s="5"/>
+    </row>
+    <row r="115" spans="1:36">
       <c r="A115" s="3" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B115" s="3">
         <v>34</v>
@@ -5618,14 +7500,15 @@
       <c r="AC115" s="6"/>
       <c r="AD115" s="6"/>
       <c r="AE115" s="6"/>
-      <c r="AF115" s="5"/>
+      <c r="AF115" s="6"/>
       <c r="AG115" s="5"/>
       <c r="AH115" s="5"/>
       <c r="AI115" s="5"/>
-    </row>
-    <row r="116" spans="1:35">
+      <c r="AJ115" s="5"/>
+    </row>
+    <row r="116" spans="1:36">
       <c r="A116" s="3" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B116" s="3">
         <v>6</v>
@@ -5653,22 +7536,41 @@
       <c r="U116" s="6"/>
       <c r="V116" s="6"/>
       <c r="W116" s="6"/>
-      <c r="X116" s="5"/>
-      <c r="Y116" s="5"/>
-      <c r="Z116" s="5"/>
-      <c r="AA116" s="5"/>
-      <c r="AB116" s="6"/>
-      <c r="AC116" s="6"/>
-      <c r="AD116" s="6"/>
-      <c r="AE116" s="6"/>
-      <c r="AF116" s="5"/>
+      <c r="X116" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y116" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="Z116" s="5">
+        <v>2674.17</v>
+      </c>
+      <c r="AA116" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="AB116" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC116" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="AD116" s="6">
+        <v>2674.17</v>
+      </c>
+      <c r="AE116" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="AF116" s="6">
+        <v>51</v>
+      </c>
       <c r="AG116" s="5"/>
       <c r="AH116" s="5"/>
       <c r="AI116" s="5"/>
-    </row>
-    <row r="117" spans="1:35">
+      <c r="AJ116" s="5"/>
+    </row>
+    <row r="117" spans="1:36">
       <c r="A117" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B117" s="3">
         <v>5</v>
@@ -5696,22 +7598,41 @@
       <c r="U117" s="6"/>
       <c r="V117" s="6"/>
       <c r="W117" s="6"/>
-      <c r="X117" s="5"/>
-      <c r="Y117" s="5"/>
-      <c r="Z117" s="5"/>
-      <c r="AA117" s="5"/>
-      <c r="AB117" s="6"/>
-      <c r="AC117" s="6"/>
-      <c r="AD117" s="6"/>
-      <c r="AE117" s="6"/>
-      <c r="AF117" s="5"/>
+      <c r="X117" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y117" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="Z117" s="5">
+        <v>3448.39</v>
+      </c>
+      <c r="AA117" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="AB117" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC117" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="AD117" s="6">
+        <v>3448.39</v>
+      </c>
+      <c r="AE117" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="AF117" s="6">
+        <v>16</v>
+      </c>
       <c r="AG117" s="5"/>
       <c r="AH117" s="5"/>
       <c r="AI117" s="5"/>
-    </row>
-    <row r="118" spans="1:35">
+      <c r="AJ117" s="5"/>
+    </row>
+    <row r="118" spans="1:36">
       <c r="A118" s="3" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B118" s="3">
         <v>7</v>
@@ -5739,22 +7660,41 @@
       <c r="U118" s="6"/>
       <c r="V118" s="6"/>
       <c r="W118" s="6"/>
-      <c r="X118" s="5"/>
-      <c r="Y118" s="5"/>
-      <c r="Z118" s="5"/>
-      <c r="AA118" s="5"/>
-      <c r="AB118" s="6"/>
-      <c r="AC118" s="6"/>
-      <c r="AD118" s="6"/>
-      <c r="AE118" s="6"/>
-      <c r="AF118" s="5"/>
+      <c r="X118" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y118" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="Z118" s="5">
+        <v>2950.77</v>
+      </c>
+      <c r="AA118" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="AB118" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC118" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="AD118" s="6">
+        <v>2950.77</v>
+      </c>
+      <c r="AE118" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="AF118" s="6">
+        <v>71</v>
+      </c>
       <c r="AG118" s="5"/>
       <c r="AH118" s="5"/>
       <c r="AI118" s="5"/>
-    </row>
-    <row r="119" spans="1:35">
+      <c r="AJ118" s="5"/>
+    </row>
+    <row r="119" spans="1:36">
       <c r="A119" s="3" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B119" s="3">
         <v>6</v>
@@ -5782,22 +7722,41 @@
       <c r="U119" s="6"/>
       <c r="V119" s="6"/>
       <c r="W119" s="6"/>
-      <c r="X119" s="5"/>
-      <c r="Y119" s="5"/>
-      <c r="Z119" s="5"/>
-      <c r="AA119" s="5"/>
-      <c r="AB119" s="6"/>
-      <c r="AC119" s="6"/>
-      <c r="AD119" s="6"/>
-      <c r="AE119" s="6"/>
-      <c r="AF119" s="5"/>
+      <c r="X119" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y119" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Z119" s="5">
+        <v>2815.18</v>
+      </c>
+      <c r="AA119" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="AB119" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC119" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AD119" s="6">
+        <v>2815.18</v>
+      </c>
+      <c r="AE119" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="AF119" s="6">
+        <v>43</v>
+      </c>
       <c r="AG119" s="5"/>
       <c r="AH119" s="5"/>
       <c r="AI119" s="5"/>
-    </row>
-    <row r="120" spans="1:35">
+      <c r="AJ119" s="5"/>
+    </row>
+    <row r="120" spans="1:36">
       <c r="A120" s="3" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B120" s="3">
         <v>6</v>
@@ -5825,22 +7784,41 @@
       <c r="U120" s="6"/>
       <c r="V120" s="6"/>
       <c r="W120" s="6"/>
-      <c r="X120" s="5"/>
-      <c r="Y120" s="5"/>
-      <c r="Z120" s="5"/>
-      <c r="AA120" s="5"/>
-      <c r="AB120" s="6"/>
-      <c r="AC120" s="6"/>
-      <c r="AD120" s="6"/>
-      <c r="AE120" s="6"/>
-      <c r="AF120" s="5"/>
+      <c r="X120" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y120" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="Z120" s="5">
+        <v>3347.4</v>
+      </c>
+      <c r="AA120" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AB120" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC120" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="AD120" s="6">
+        <v>3347.4</v>
+      </c>
+      <c r="AE120" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="AF120" s="6">
+        <v>34</v>
+      </c>
       <c r="AG120" s="5"/>
       <c r="AH120" s="5"/>
       <c r="AI120" s="5"/>
-    </row>
-    <row r="121" spans="1:35">
+      <c r="AJ120" s="5"/>
+    </row>
+    <row r="121" spans="1:36">
       <c r="A121" s="3" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="B121" s="3">
         <v>9</v>
@@ -5868,22 +7846,41 @@
       <c r="U121" s="6"/>
       <c r="V121" s="6"/>
       <c r="W121" s="6"/>
-      <c r="X121" s="5"/>
-      <c r="Y121" s="5"/>
-      <c r="Z121" s="5"/>
-      <c r="AA121" s="5"/>
-      <c r="AB121" s="6"/>
-      <c r="AC121" s="6"/>
-      <c r="AD121" s="6"/>
-      <c r="AE121" s="6"/>
-      <c r="AF121" s="5"/>
+      <c r="X121" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y121" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="Z121" s="5">
+        <v>4066.18</v>
+      </c>
+      <c r="AA121" s="5">
+        <v>2.34</v>
+      </c>
+      <c r="AB121" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC121" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="AD121" s="6">
+        <v>4066.18</v>
+      </c>
+      <c r="AE121" s="6">
+        <v>2.42</v>
+      </c>
+      <c r="AF121" s="6">
+        <v>173</v>
+      </c>
       <c r="AG121" s="5"/>
       <c r="AH121" s="5"/>
       <c r="AI121" s="5"/>
-    </row>
-    <row r="122" spans="1:35">
+      <c r="AJ121" s="5"/>
+    </row>
+    <row r="122" spans="1:36">
       <c r="A122" s="3" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="B122" s="3">
         <v>6</v>
@@ -5911,22 +7908,41 @@
       <c r="U122" s="6"/>
       <c r="V122" s="6"/>
       <c r="W122" s="6"/>
-      <c r="X122" s="5"/>
-      <c r="Y122" s="5"/>
-      <c r="Z122" s="5"/>
-      <c r="AA122" s="5"/>
-      <c r="AB122" s="6"/>
-      <c r="AC122" s="6"/>
-      <c r="AD122" s="6"/>
-      <c r="AE122" s="6"/>
-      <c r="AF122" s="5"/>
+      <c r="X122" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y122" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="Z122" s="5">
+        <v>4135.59</v>
+      </c>
+      <c r="AA122" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="AB122" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC122" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="AD122" s="6">
+        <v>4135.59</v>
+      </c>
+      <c r="AE122" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="AF122" s="6">
+        <v>22</v>
+      </c>
       <c r="AG122" s="5"/>
       <c r="AH122" s="5"/>
       <c r="AI122" s="5"/>
-    </row>
-    <row r="123" spans="1:35">
+      <c r="AJ122" s="5"/>
+    </row>
+    <row r="123" spans="1:36">
       <c r="A123" s="3" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="B123" s="3">
         <v>6</v>
@@ -5954,22 +7970,41 @@
       <c r="U123" s="6"/>
       <c r="V123" s="6"/>
       <c r="W123" s="6"/>
-      <c r="X123" s="5"/>
-      <c r="Y123" s="5"/>
-      <c r="Z123" s="5"/>
-      <c r="AA123" s="5"/>
-      <c r="AB123" s="6"/>
-      <c r="AC123" s="6"/>
-      <c r="AD123" s="6"/>
-      <c r="AE123" s="6"/>
-      <c r="AF123" s="5"/>
+      <c r="X123" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y123" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="Z123" s="5">
+        <v>4722.3999999999996</v>
+      </c>
+      <c r="AA123" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AB123" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC123" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="AD123" s="6">
+        <v>4722.3999999999996</v>
+      </c>
+      <c r="AE123" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="AF123" s="6">
+        <v>17</v>
+      </c>
       <c r="AG123" s="5"/>
       <c r="AH123" s="5"/>
       <c r="AI123" s="5"/>
-    </row>
-    <row r="124" spans="1:35">
+      <c r="AJ123" s="5"/>
+    </row>
+    <row r="124" spans="1:36">
       <c r="A124" s="3" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="B124" s="3">
         <v>6</v>
@@ -5997,22 +8032,41 @@
       <c r="U124" s="6"/>
       <c r="V124" s="6"/>
       <c r="W124" s="6"/>
-      <c r="X124" s="5"/>
-      <c r="Y124" s="5"/>
-      <c r="Z124" s="5"/>
-      <c r="AA124" s="5"/>
-      <c r="AB124" s="6"/>
-      <c r="AC124" s="6"/>
-      <c r="AD124" s="6"/>
-      <c r="AE124" s="6"/>
-      <c r="AF124" s="5"/>
+      <c r="X124" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y124" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z124" s="5">
+        <v>3934.95</v>
+      </c>
+      <c r="AA124" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="AB124" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC124" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD124" s="6">
+        <v>3934.95</v>
+      </c>
+      <c r="AE124" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="AF124" s="6">
+        <v>27</v>
+      </c>
       <c r="AG124" s="5"/>
       <c r="AH124" s="5"/>
       <c r="AI124" s="5"/>
-    </row>
-    <row r="125" spans="1:35">
+      <c r="AJ124" s="5"/>
+    </row>
+    <row r="125" spans="1:36">
       <c r="A125" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B125" s="3">
         <v>8</v>
@@ -6040,22 +8094,41 @@
       <c r="U125" s="6"/>
       <c r="V125" s="6"/>
       <c r="W125" s="6"/>
-      <c r="X125" s="5"/>
-      <c r="Y125" s="5"/>
-      <c r="Z125" s="5"/>
-      <c r="AA125" s="5"/>
-      <c r="AB125" s="6"/>
-      <c r="AC125" s="6"/>
-      <c r="AD125" s="6"/>
-      <c r="AE125" s="6"/>
-      <c r="AF125" s="5"/>
+      <c r="X125" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y125" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="Z125" s="5">
+        <v>4556.5200000000004</v>
+      </c>
+      <c r="AA125" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="AB125" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC125" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="AD125" s="6">
+        <v>4556.5200000000004</v>
+      </c>
+      <c r="AE125" s="6">
+        <v>1.32</v>
+      </c>
+      <c r="AF125" s="6">
+        <v>65</v>
+      </c>
       <c r="AG125" s="5"/>
       <c r="AH125" s="5"/>
       <c r="AI125" s="5"/>
-    </row>
-    <row r="126" spans="1:35">
+      <c r="AJ125" s="5"/>
+    </row>
+    <row r="126" spans="1:36">
       <c r="A126" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B126" s="3">
         <v>10</v>
@@ -6083,22 +8156,41 @@
       <c r="U126" s="6"/>
       <c r="V126" s="6"/>
       <c r="W126" s="6"/>
-      <c r="X126" s="5"/>
-      <c r="Y126" s="5"/>
-      <c r="Z126" s="5"/>
-      <c r="AA126" s="5"/>
-      <c r="AB126" s="6"/>
-      <c r="AC126" s="6"/>
-      <c r="AD126" s="6"/>
-      <c r="AE126" s="6"/>
-      <c r="AF126" s="5"/>
+      <c r="X126" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y126" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="Z126" s="5">
+        <v>4541.0600000000004</v>
+      </c>
+      <c r="AA126" s="5">
+        <v>4.47</v>
+      </c>
+      <c r="AB126" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC126" s="6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AD126" s="6">
+        <v>4541.0600000000004</v>
+      </c>
+      <c r="AE126" s="6">
+        <v>4.25</v>
+      </c>
+      <c r="AF126" s="6">
+        <v>225</v>
+      </c>
       <c r="AG126" s="5"/>
       <c r="AH126" s="5"/>
       <c r="AI126" s="5"/>
-    </row>
-    <row r="127" spans="1:35">
+      <c r="AJ126" s="5"/>
+    </row>
+    <row r="127" spans="1:36">
       <c r="A127" s="3" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B127" s="3">
         <v>10</v>
@@ -6126,22 +8218,41 @@
       <c r="U127" s="6"/>
       <c r="V127" s="6"/>
       <c r="W127" s="6"/>
-      <c r="X127" s="5"/>
-      <c r="Y127" s="5"/>
-      <c r="Z127" s="5"/>
-      <c r="AA127" s="5"/>
-      <c r="AB127" s="6"/>
-      <c r="AC127" s="6"/>
-      <c r="AD127" s="6"/>
-      <c r="AE127" s="6"/>
-      <c r="AF127" s="5"/>
+      <c r="X127" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y127" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="Z127" s="5">
+        <v>5946.49</v>
+      </c>
+      <c r="AA127" s="5">
+        <v>2.94</v>
+      </c>
+      <c r="AB127" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC127" s="6">
+        <v>1.27</v>
+      </c>
+      <c r="AD127" s="6">
+        <v>5946.49</v>
+      </c>
+      <c r="AE127" s="6">
+        <v>3.24</v>
+      </c>
+      <c r="AF127" s="6">
+        <v>128</v>
+      </c>
       <c r="AG127" s="5"/>
       <c r="AH127" s="5"/>
       <c r="AI127" s="5"/>
-    </row>
-    <row r="128" spans="1:35">
+      <c r="AJ127" s="5"/>
+    </row>
+    <row r="128" spans="1:36">
       <c r="A128" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="B128" s="3">
         <v>12</v>
@@ -6169,22 +8280,41 @@
       <c r="U128" s="6"/>
       <c r="V128" s="6"/>
       <c r="W128" s="6"/>
-      <c r="X128" s="5"/>
-      <c r="Y128" s="5"/>
-      <c r="Z128" s="5"/>
-      <c r="AA128" s="5"/>
-      <c r="AB128" s="6"/>
-      <c r="AC128" s="6"/>
-      <c r="AD128" s="6"/>
-      <c r="AE128" s="6"/>
-      <c r="AF128" s="5"/>
+      <c r="X128" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y128" s="5">
+        <v>3.48</v>
+      </c>
+      <c r="Z128" s="5">
+        <v>5202.07</v>
+      </c>
+      <c r="AA128" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AB128" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC128" s="6">
+        <v>4.42</v>
+      </c>
+      <c r="AD128" s="6">
+        <v>5202.07</v>
+      </c>
+      <c r="AE128" s="6">
+        <v>5.88</v>
+      </c>
+      <c r="AF128" s="6">
+        <v>418</v>
+      </c>
       <c r="AG128" s="5"/>
       <c r="AH128" s="5"/>
       <c r="AI128" s="5"/>
-    </row>
-    <row r="129" spans="1:35">
+      <c r="AJ128" s="5"/>
+    </row>
+    <row r="129" spans="1:36">
       <c r="A129" s="3" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B129" s="3">
         <v>10</v>
@@ -6212,22 +8342,41 @@
       <c r="U129" s="6"/>
       <c r="V129" s="6"/>
       <c r="W129" s="6"/>
-      <c r="X129" s="5"/>
-      <c r="Y129" s="5"/>
-      <c r="Z129" s="5"/>
-      <c r="AA129" s="5"/>
-      <c r="AB129" s="6"/>
-      <c r="AC129" s="6"/>
-      <c r="AD129" s="6"/>
-      <c r="AE129" s="6"/>
-      <c r="AF129" s="5"/>
+      <c r="X129" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y129" s="5">
+        <v>3.42</v>
+      </c>
+      <c r="Z129" s="5">
+        <v>4242.0600000000004</v>
+      </c>
+      <c r="AA129" s="5">
+        <v>7.26</v>
+      </c>
+      <c r="AB129" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC129" s="6">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="AD129" s="6">
+        <v>4242.0600000000004</v>
+      </c>
+      <c r="AE129" s="6">
+        <v>5.22</v>
+      </c>
+      <c r="AF129" s="6">
+        <v>225</v>
+      </c>
       <c r="AG129" s="5"/>
       <c r="AH129" s="5"/>
       <c r="AI129" s="5"/>
-    </row>
-    <row r="130" spans="1:35">
+      <c r="AJ129" s="5"/>
+    </row>
+    <row r="130" spans="1:36">
       <c r="A130" s="3" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="B130" s="3">
         <v>12</v>
@@ -6255,22 +8404,41 @@
       <c r="U130" s="6"/>
       <c r="V130" s="6"/>
       <c r="W130" s="6"/>
-      <c r="X130" s="5"/>
-      <c r="Y130" s="5"/>
-      <c r="Z130" s="5"/>
-      <c r="AA130" s="5"/>
-      <c r="AB130" s="6"/>
-      <c r="AC130" s="6"/>
-      <c r="AD130" s="6"/>
-      <c r="AE130" s="6"/>
-      <c r="AF130" s="5"/>
+      <c r="X130" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y130" s="5">
+        <v>4.42</v>
+      </c>
+      <c r="Z130" s="5">
+        <v>4891.25</v>
+      </c>
+      <c r="AA130" s="5">
+        <v>9.74</v>
+      </c>
+      <c r="AB130" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC130" s="6">
+        <v>4.72</v>
+      </c>
+      <c r="AD130" s="6">
+        <v>4891.25</v>
+      </c>
+      <c r="AE130" s="6">
+        <v>6.99</v>
+      </c>
+      <c r="AF130" s="6">
+        <v>472</v>
+      </c>
       <c r="AG130" s="5"/>
       <c r="AH130" s="5"/>
       <c r="AI130" s="5"/>
-    </row>
-    <row r="131" spans="1:35">
+      <c r="AJ130" s="5"/>
+    </row>
+    <row r="131" spans="1:36">
       <c r="A131" s="3" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="B131" s="3">
         <v>22</v>
@@ -6298,22 +8466,41 @@
       <c r="U131" s="6"/>
       <c r="V131" s="6"/>
       <c r="W131" s="6"/>
-      <c r="X131" s="5"/>
-      <c r="Y131" s="5"/>
-      <c r="Z131" s="5"/>
-      <c r="AA131" s="5"/>
-      <c r="AB131" s="6"/>
-      <c r="AC131" s="6"/>
-      <c r="AD131" s="6"/>
-      <c r="AE131" s="6"/>
-      <c r="AF131" s="5"/>
+      <c r="X131" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y131" s="5">
+        <v>89.35</v>
+      </c>
+      <c r="Z131" s="5">
+        <v>8931.92</v>
+      </c>
+      <c r="AA131" s="5">
+        <v>187.07</v>
+      </c>
+      <c r="AB131" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC131" s="6">
+        <v>119.82</v>
+      </c>
+      <c r="AD131" s="6">
+        <v>8931.92</v>
+      </c>
+      <c r="AE131" s="6">
+        <v>132.19</v>
+      </c>
+      <c r="AF131" s="6">
+        <v>5099</v>
+      </c>
       <c r="AG131" s="5"/>
       <c r="AH131" s="5"/>
       <c r="AI131" s="5"/>
-    </row>
-    <row r="132" spans="1:35">
+      <c r="AJ131" s="5"/>
+    </row>
+    <row r="132" spans="1:36">
       <c r="A132" s="3" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="B132" s="3">
         <v>19</v>
@@ -6341,22 +8528,41 @@
       <c r="U132" s="6"/>
       <c r="V132" s="6"/>
       <c r="W132" s="6"/>
-      <c r="X132" s="5"/>
-      <c r="Y132" s="5"/>
-      <c r="Z132" s="5"/>
-      <c r="AA132" s="5"/>
-      <c r="AB132" s="6"/>
-      <c r="AC132" s="6"/>
-      <c r="AD132" s="6"/>
-      <c r="AE132" s="6"/>
-      <c r="AF132" s="5"/>
+      <c r="X132" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y132" s="5">
+        <v>20.02</v>
+      </c>
+      <c r="Z132" s="5">
+        <v>9359.7199999999993</v>
+      </c>
+      <c r="AA132" s="5">
+        <v>43.25</v>
+      </c>
+      <c r="AB132" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC132" s="6">
+        <v>26.07</v>
+      </c>
+      <c r="AD132" s="6">
+        <v>9359.7199999999993</v>
+      </c>
+      <c r="AE132" s="6">
+        <v>30.49</v>
+      </c>
+      <c r="AF132" s="6">
+        <v>1254</v>
+      </c>
       <c r="AG132" s="5"/>
       <c r="AH132" s="5"/>
       <c r="AI132" s="5"/>
-    </row>
-    <row r="133" spans="1:35">
+      <c r="AJ132" s="5"/>
+    </row>
+    <row r="133" spans="1:36">
       <c r="A133" s="3" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="B133" s="3">
         <v>22</v>
@@ -6384,22 +8590,41 @@
       <c r="U133" s="6"/>
       <c r="V133" s="6"/>
       <c r="W133" s="6"/>
-      <c r="X133" s="5"/>
-      <c r="Y133" s="5"/>
-      <c r="Z133" s="5"/>
-      <c r="AA133" s="5"/>
-      <c r="AB133" s="6"/>
-      <c r="AC133" s="6"/>
-      <c r="AD133" s="6"/>
-      <c r="AE133" s="6"/>
-      <c r="AF133" s="5"/>
+      <c r="X133" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y133" s="5">
+        <v>23.19</v>
+      </c>
+      <c r="Z133" s="5">
+        <v>10886.29</v>
+      </c>
+      <c r="AA133" s="5">
+        <v>53.42</v>
+      </c>
+      <c r="AB133" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC133" s="6">
+        <v>30.13</v>
+      </c>
+      <c r="AD133" s="6">
+        <v>10886.29</v>
+      </c>
+      <c r="AE133" s="6">
+        <v>50.26</v>
+      </c>
+      <c r="AF133" s="6">
+        <v>1797</v>
+      </c>
       <c r="AG133" s="5"/>
       <c r="AH133" s="5"/>
       <c r="AI133" s="5"/>
-    </row>
-    <row r="134" spans="1:35">
+      <c r="AJ133" s="5"/>
+    </row>
+    <row r="134" spans="1:36">
       <c r="A134" s="3" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="B134" s="3">
         <v>22</v>
@@ -6427,22 +8652,41 @@
       <c r="U134" s="6"/>
       <c r="V134" s="6"/>
       <c r="W134" s="6"/>
-      <c r="X134" s="5"/>
-      <c r="Y134" s="5"/>
-      <c r="Z134" s="5"/>
-      <c r="AA134" s="5"/>
-      <c r="AB134" s="6"/>
-      <c r="AC134" s="6"/>
-      <c r="AD134" s="6"/>
-      <c r="AE134" s="6"/>
-      <c r="AF134" s="5"/>
+      <c r="X134" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y134" s="5">
+        <v>87.83</v>
+      </c>
+      <c r="Z134" s="5">
+        <v>7735.35</v>
+      </c>
+      <c r="AA134" s="5">
+        <v>188.59</v>
+      </c>
+      <c r="AB134" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC134" s="6">
+        <v>106.94</v>
+      </c>
+      <c r="AD134" s="6">
+        <v>7735.35</v>
+      </c>
+      <c r="AE134" s="6">
+        <v>164.88</v>
+      </c>
+      <c r="AF134" s="6">
+        <v>6819</v>
+      </c>
       <c r="AG134" s="5"/>
       <c r="AH134" s="5"/>
       <c r="AI134" s="5"/>
-    </row>
-    <row r="135" spans="1:35">
+      <c r="AJ134" s="5"/>
+    </row>
+    <row r="135" spans="1:36">
       <c r="A135" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B135" s="3">
         <v>23</v>
@@ -6470,39 +8714,58 @@
       <c r="U135" s="6"/>
       <c r="V135" s="6"/>
       <c r="W135" s="6"/>
-      <c r="X135" s="5"/>
-      <c r="Y135" s="5"/>
-      <c r="Z135" s="5"/>
-      <c r="AA135" s="5"/>
-      <c r="AB135" s="6"/>
-      <c r="AC135" s="6"/>
-      <c r="AD135" s="6"/>
-      <c r="AE135" s="6"/>
-      <c r="AF135" s="5"/>
+      <c r="X135" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y135" s="5">
+        <v>79.709999999999994</v>
+      </c>
+      <c r="Z135" s="5">
+        <v>9082.58</v>
+      </c>
+      <c r="AA135" s="5">
+        <v>167.79</v>
+      </c>
+      <c r="AB135" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC135" s="6">
+        <v>105.14</v>
+      </c>
+      <c r="AD135" s="6">
+        <v>9082.58</v>
+      </c>
+      <c r="AE135" s="6">
+        <v>106.49</v>
+      </c>
+      <c r="AF135" s="6">
+        <v>4797</v>
+      </c>
       <c r="AG135" s="5"/>
       <c r="AH135" s="5"/>
       <c r="AI135" s="5"/>
+      <c r="AJ135" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="X14:AA14"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="AG14:AJ14"/>
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="N12:S12"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="R14:W14"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N8:S8"/>
     <mergeCell ref="N3:S3"/>
     <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N5:S5"/>
     <mergeCell ref="N6:S6"/>
     <mergeCell ref="N7:S7"/>
-    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="L14:Q14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/docs/model_results.xlsx
+++ b/docs/model_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/DC2057430E44BE2F/Documents/Year 4/Semester 2/Math3205/Project/MATH3205_MPDPTW_Project/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\OneDrive\Documents\Year 4\Semester 2\Math3205\Project\MATH3205_MPDPTW_Project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_4F35E98B1329DE3E4730D811509090B461F1183E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A7EBCBF-EDC8-40A3-8C45-564617C46012}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C170740E-864E-4CB1-8A0D-B7D3B386390F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="151">
   <si>
     <t xml:space="preserve"> r = number of requests per instance</t>
   </si>
@@ -471,7 +471,10 @@
     <t>w_8_100_5</t>
   </si>
   <si>
-    <t>Column Amount (For both ways)</t>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Columns Generated (For both Methods)</t>
   </si>
 </sst>
 </file>
@@ -688,20 +691,20 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AJ135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W10" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB37" sqref="AB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1068,7 +1071,7 @@
     <col min="29" max="29" width="15.59765625" customWidth="1"/>
     <col min="30" max="30" width="12.1328125" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
-    <col min="32" max="32" width="32.33203125" customWidth="1"/>
+    <col min="32" max="32" width="28.46484375" customWidth="1"/>
     <col min="33" max="33" width="18.3984375" customWidth="1"/>
     <col min="34" max="34" width="21.86328125" customWidth="1"/>
     <col min="35" max="35" width="18.3984375" customWidth="1"/>
@@ -1076,149 +1079,149 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:36">
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="18"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="21"/>
     </row>
     <row r="4" spans="1:36">
-      <c r="N4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="18"/>
+      <c r="N4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
     </row>
     <row r="5" spans="1:36">
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:36">
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" spans="1:36">
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" spans="1:36">
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="18"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:36">
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="18"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" spans="1:36">
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="18"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" spans="1:36">
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="18"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="21"/>
     </row>
     <row r="12" spans="1:36">
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="18"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="14" spans="1:36">
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="19" t="s">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="22" t="s">
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="23" t="s">
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="22" t="s">
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="21"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="18"/>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="1" t="s">
@@ -1315,7 +1318,7 @@
         <v>26</v>
       </c>
       <c r="AF15" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" s="4" t="s">
         <v>21</v>
@@ -5068,24 +5071,12 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
-      <c r="L76" s="5">
-        <v>1</v>
-      </c>
-      <c r="M76" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="N76" s="5">
-        <v>4410.46</v>
-      </c>
-      <c r="O76" s="5">
-        <v>4410.46</v>
-      </c>
-      <c r="P76" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="5">
-        <v>0.11</v>
-      </c>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
@@ -5136,42 +5127,18 @@
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="6">
-        <v>1</v>
-      </c>
-      <c r="G77" s="6">
-        <v>0.37</v>
-      </c>
-      <c r="H77" s="6">
-        <v>4223.51</v>
-      </c>
-      <c r="I77" s="6">
-        <v>4223.51</v>
-      </c>
-      <c r="J77" s="6">
-        <v>0</v>
-      </c>
-      <c r="K77" s="6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L77" s="5">
-        <v>1</v>
-      </c>
-      <c r="M77" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="N77" s="5">
-        <v>4223.51</v>
-      </c>
-      <c r="O77" s="5">
-        <v>4223.51</v>
-      </c>
-      <c r="P77" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="5">
-        <v>0.16</v>
-      </c>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
@@ -5296,24 +5263,12 @@
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
-      <c r="R79" s="6">
-        <v>1</v>
-      </c>
-      <c r="S79" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="T79" s="6">
-        <v>4340.3</v>
-      </c>
-      <c r="U79" s="6">
-        <v>4340.3</v>
-      </c>
-      <c r="V79" s="6">
-        <v>0</v>
-      </c>
-      <c r="W79" s="6">
-        <v>0.15</v>
-      </c>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
       <c r="X79" s="5">
         <v>1</v>
       </c>
@@ -7298,15 +7253,33 @@
       <c r="U111" s="6"/>
       <c r="V111" s="6"/>
       <c r="W111" s="6"/>
-      <c r="X111" s="5"/>
-      <c r="Y111" s="5"/>
-      <c r="Z111" s="5"/>
-      <c r="AA111" s="5"/>
-      <c r="AB111" s="6"/>
-      <c r="AC111" s="6"/>
-      <c r="AD111" s="6"/>
-      <c r="AE111" s="6"/>
-      <c r="AF111" s="6"/>
+      <c r="X111" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z111" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA111" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB111" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC111" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD111" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE111" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF111" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AG111" s="5"/>
       <c r="AH111" s="5"/>
       <c r="AI111" s="5"/>
@@ -7342,15 +7315,33 @@
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
       <c r="W112" s="6"/>
-      <c r="X112" s="5"/>
-      <c r="Y112" s="5"/>
-      <c r="Z112" s="5"/>
-      <c r="AA112" s="5"/>
-      <c r="AB112" s="6"/>
-      <c r="AC112" s="6"/>
-      <c r="AD112" s="6"/>
-      <c r="AE112" s="6"/>
-      <c r="AF112" s="6"/>
+      <c r="X112" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z112" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA112" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB112" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC112" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD112" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE112" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF112" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AG112" s="5"/>
       <c r="AH112" s="5"/>
       <c r="AI112" s="5"/>
@@ -7448,15 +7439,33 @@
       <c r="U114" s="6"/>
       <c r="V114" s="6"/>
       <c r="W114" s="6"/>
-      <c r="X114" s="5"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-      <c r="AA114" s="5"/>
-      <c r="AB114" s="6"/>
-      <c r="AC114" s="6"/>
-      <c r="AD114" s="6"/>
-      <c r="AE114" s="6"/>
-      <c r="AF114" s="6"/>
+      <c r="X114" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z114" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA114" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB114" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC114" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD114" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE114" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF114" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AG114" s="5"/>
       <c r="AH114" s="5"/>
       <c r="AI114" s="5"/>
@@ -7492,15 +7501,33 @@
       <c r="U115" s="6"/>
       <c r="V115" s="6"/>
       <c r="W115" s="6"/>
-      <c r="X115" s="5"/>
-      <c r="Y115" s="5"/>
-      <c r="Z115" s="5"/>
-      <c r="AA115" s="5"/>
-      <c r="AB115" s="6"/>
-      <c r="AC115" s="6"/>
-      <c r="AD115" s="6"/>
-      <c r="AE115" s="6"/>
-      <c r="AF115" s="6"/>
+      <c r="X115" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z115" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA115" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB115" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC115" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD115" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE115" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF115" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="AG115" s="5"/>
       <c r="AH115" s="5"/>
       <c r="AI115" s="5"/>
@@ -8748,22 +8775,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="N10:S10"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="N7:S7"/>
     <mergeCell ref="AG14:AJ14"/>
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="N12:S12"/>
     <mergeCell ref="X14:AA14"/>
     <mergeCell ref="AB14:AF14"/>
     <mergeCell ref="R14:W14"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="N7:S7"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="N10:S10"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="L14:Q14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/docs/model_results.xlsx
+++ b/docs/model_results.xlsx
@@ -5,17 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc2057430e44be2f/Documents/Year 4/Semester 2/Math3205/Project/MATH3205_MPDPTW_Project/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/DC2057430E44BE2F/Documents/Year 4/Semester 2/Math3205/Project/MATH3205_MPDPTW_Project/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_484D099C13F9D81173CB6813593138775C0BF0E1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FDB1D69-6F4E-421C-B8A4-78C3291679DB}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_7641998AD2FD9066943444314E3138775C0B9D29" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9A829A5-A733-470B-89D6-C660EAB7718E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -652,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -696,17 +709,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,39 +1057,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AJ135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q88" sqref="Q88"/>
+    <sheetView tabSelected="1" topLeftCell="H50" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" customWidth="1"/>
+    <col min="5" max="5" width="18.265625" customWidth="1"/>
+    <col min="6" max="6" width="15.86328125" customWidth="1"/>
+    <col min="7" max="7" width="15.1328125" customWidth="1"/>
+    <col min="8" max="8" width="14.1328125" customWidth="1"/>
+    <col min="10" max="10" width="13.73046875" customWidth="1"/>
+    <col min="11" max="11" width="17.73046875" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" customWidth="1"/>
+    <col min="15" max="15" width="14.3984375" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.73046875" customWidth="1"/>
+    <col min="24" max="24" width="14.265625" customWidth="1"/>
+    <col min="25" max="25" width="13.59765625" customWidth="1"/>
+    <col min="26" max="26" width="10.265625" customWidth="1"/>
+    <col min="27" max="27" width="13.1328125" customWidth="1"/>
+    <col min="28" max="28" width="12.265625" customWidth="1"/>
+    <col min="29" max="29" width="15.59765625" customWidth="1"/>
+    <col min="30" max="30" width="12.1328125" customWidth="1"/>
     <col min="31" max="31" width="12" customWidth="1"/>
-    <col min="32" max="32" width="28.42578125" customWidth="1"/>
-    <col min="33" max="33" width="18.42578125" customWidth="1"/>
-    <col min="34" max="34" width="21.85546875" customWidth="1"/>
-    <col min="35" max="35" width="18.42578125" customWidth="1"/>
-    <col min="36" max="36" width="32.140625" customWidth="1"/>
+    <col min="32" max="32" width="28.3984375" customWidth="1"/>
+    <col min="33" max="33" width="18.3984375" customWidth="1"/>
+    <col min="34" max="34" width="21.86328125" customWidth="1"/>
+    <col min="35" max="35" width="18.3984375" customWidth="1"/>
+    <col min="36" max="36" width="32.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:36">
@@ -1179,7 +1193,7 @@
       <c r="S12" s="18"/>
     </row>
     <row r="14" spans="1:36">
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="22" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="20"/>
@@ -1187,7 +1201,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="19" t="s">
         <v>11</v>
       </c>
       <c r="M14" s="20"/>
@@ -1195,7 +1209,7 @@
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="19" t="s">
+      <c r="R14" s="22" t="s">
         <v>12</v>
       </c>
       <c r="S14" s="20"/>
@@ -1203,7 +1217,7 @@
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
       <c r="W14" s="21"/>
-      <c r="X14" s="22" t="s">
+      <c r="X14" s="19" t="s">
         <v>13</v>
       </c>
       <c r="Y14" s="20"/>
@@ -1216,7 +1230,7 @@
       <c r="AD14" s="20"/>
       <c r="AE14" s="20"/>
       <c r="AF14" s="21"/>
-      <c r="AG14" s="22" t="s">
+      <c r="AG14" s="19" t="s">
         <v>15</v>
       </c>
       <c r="AH14" s="20"/>
@@ -1351,12 +1365,24 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>5.63</v>
+      </c>
+      <c r="N16" s="5">
+        <v>4585.8500000000004</v>
+      </c>
+      <c r="O16" s="5">
+        <v>4585.8500000000004</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>5.8</v>
+      </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
@@ -1413,12 +1439,24 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1103.32</v>
+      </c>
+      <c r="N17" s="5">
+        <v>3418.61</v>
+      </c>
+      <c r="O17" s="5">
+        <v>4017.9</v>
+      </c>
+      <c r="P17" s="5">
+        <v>14.92</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>1800</v>
+      </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -1475,12 +1513,24 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1106.9000000000001</v>
+      </c>
+      <c r="N18" s="5">
+        <v>3354.65</v>
+      </c>
+      <c r="O18" s="5">
+        <v>4713.7</v>
+      </c>
+      <c r="P18" s="5">
+        <v>28.83</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>1800</v>
+      </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -1537,12 +1587,24 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5">
+        <v>44.83</v>
+      </c>
+      <c r="N19" s="5">
+        <v>3872.6</v>
+      </c>
+      <c r="O19" s="5">
+        <v>3872.6</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>76.48</v>
+      </c>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
@@ -1599,12 +1661,24 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>934.02</v>
+      </c>
+      <c r="N20" s="5">
+        <v>3071.77</v>
+      </c>
+      <c r="O20" s="5">
+        <v>3397.66</v>
+      </c>
+      <c r="P20" s="5">
+        <v>9.59</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>1800</v>
+      </c>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
@@ -1661,12 +1735,24 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1216.71</v>
+      </c>
+      <c r="N21" s="5">
+        <v>4220.93</v>
+      </c>
+      <c r="O21" s="5">
+        <v>5791.6</v>
+      </c>
+      <c r="P21" s="5">
+        <v>27.12</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>1800</v>
+      </c>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
@@ -1723,12 +1809,24 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1199.48</v>
+      </c>
+      <c r="N22" s="5">
+        <v>4320.5200000000004</v>
+      </c>
+      <c r="O22" s="5">
+        <v>5470.9</v>
+      </c>
+      <c r="P22" s="5">
+        <v>21.03</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>1800</v>
+      </c>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -1785,12 +1883,24 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>1241.54</v>
+      </c>
+      <c r="N23" s="5">
+        <v>3764.67</v>
+      </c>
+      <c r="O23" s="5">
+        <v>5387.3</v>
+      </c>
+      <c r="P23" s="5">
+        <v>30.12</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>1800</v>
+      </c>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -1847,12 +1957,24 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1253.69</v>
+      </c>
+      <c r="N24" s="5">
+        <v>5249.39</v>
+      </c>
+      <c r="O24" s="5">
+        <v>6257.5</v>
+      </c>
+      <c r="P24" s="5">
+        <v>16.11</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>1800</v>
+      </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
@@ -1909,12 +2031,24 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
+        <v>1325.79</v>
+      </c>
+      <c r="N25" s="5">
+        <v>3840.95</v>
+      </c>
+      <c r="O25" s="5">
+        <v>5368</v>
+      </c>
+      <c r="P25" s="5">
+        <v>28.45</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>1800</v>
+      </c>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
@@ -1971,12 +2105,24 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5">
+        <v>1254.56</v>
+      </c>
+      <c r="N26" s="5">
+        <v>4973.96</v>
+      </c>
+      <c r="O26" s="5">
+        <v>7351.6</v>
+      </c>
+      <c r="P26" s="5">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>1800</v>
+      </c>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
@@ -2033,12 +2179,24 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1357.35</v>
+      </c>
+      <c r="N27" s="5">
+        <v>4332.8500000000004</v>
+      </c>
+      <c r="O27" s="5">
+        <v>7253.4</v>
+      </c>
+      <c r="P27" s="5">
+        <v>40.26</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>1800</v>
+      </c>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
@@ -2095,12 +2253,24 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1374.15</v>
+      </c>
+      <c r="N28" s="5">
+        <v>4002.99</v>
+      </c>
+      <c r="O28" s="5">
+        <v>7485</v>
+      </c>
+      <c r="P28" s="5">
+        <v>46.52</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>1800</v>
+      </c>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
@@ -2157,12 +2327,24 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>1380.71</v>
+      </c>
+      <c r="N29" s="5">
+        <v>4610.79</v>
+      </c>
+      <c r="O29" s="5">
+        <v>6604.9</v>
+      </c>
+      <c r="P29" s="5">
+        <v>30.19</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>1800</v>
+      </c>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
@@ -2219,12 +2401,24 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1255.6400000000001</v>
+      </c>
+      <c r="N30" s="5">
+        <v>4137.74</v>
+      </c>
+      <c r="O30" s="5">
+        <v>7370.9</v>
+      </c>
+      <c r="P30" s="5">
+        <v>43.86</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>1800</v>
+      </c>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
@@ -3118,10 +3312,15 @@
       <c r="N43" s="5">
         <v>5016.05</v>
       </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
+      <c r="O43" s="24">
+        <v>5656.3550359999999</v>
+      </c>
+      <c r="P43" s="5">
+        <f>ROUND(100*ABS(O43-N43)/O43,2)</f>
+        <v>11.32</v>
+      </c>
       <c r="Q43" s="5">
-        <v>1801.78</v>
+        <v>1800</v>
       </c>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
@@ -3410,8 +3609,13 @@
       <c r="N47" s="5">
         <v>7254.13</v>
       </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
+      <c r="O47" s="24">
+        <v>8221.5395329999992</v>
+      </c>
+      <c r="P47" s="5">
+        <f t="shared" ref="P47:P50" si="0">ROUND(100*ABS(O47-N47)/O47,2)</f>
+        <v>11.77</v>
+      </c>
       <c r="Q47" s="5">
         <v>1800</v>
       </c>
@@ -3480,8 +3684,13 @@
       <c r="N48" s="5">
         <v>4641.25</v>
       </c>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
+      <c r="O48" s="24">
+        <v>7125.3721219999998</v>
+      </c>
+      <c r="P48" s="5">
+        <f t="shared" si="0"/>
+        <v>34.86</v>
+      </c>
       <c r="Q48" s="5">
         <v>1800</v>
       </c>
@@ -3550,8 +3759,13 @@
       <c r="N49" s="5">
         <v>5794.62</v>
       </c>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
+      <c r="O49" s="24">
+        <v>6621.8288030000003</v>
+      </c>
+      <c r="P49" s="5">
+        <f t="shared" si="0"/>
+        <v>12.49</v>
+      </c>
       <c r="Q49" s="5">
         <v>1800</v>
       </c>
@@ -3620,8 +3834,13 @@
       <c r="N50" s="5">
         <v>7296.49</v>
       </c>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
+      <c r="O50" s="24">
+        <v>8650.6131069999992</v>
+      </c>
+      <c r="P50" s="5">
+        <f t="shared" si="0"/>
+        <v>15.65</v>
+      </c>
       <c r="Q50" s="5">
         <v>1800</v>
       </c>
@@ -3991,12 +4210,24 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
+      <c r="L56" s="5">
+        <v>1</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+      <c r="N56" s="5">
+        <v>5108.8599999999997</v>
+      </c>
+      <c r="O56" s="5">
+        <v>5108.8599999999997</v>
+      </c>
+      <c r="P56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>0.09</v>
+      </c>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
@@ -4053,12 +4284,24 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
+      <c r="L57" s="5">
+        <v>1</v>
+      </c>
+      <c r="M57" s="5">
+        <v>23.56</v>
+      </c>
+      <c r="N57" s="5">
+        <v>4550.87</v>
+      </c>
+      <c r="O57" s="5">
+        <v>4550.87</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>25.12</v>
+      </c>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
@@ -4115,12 +4358,24 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
+      <c r="L58" s="5">
+        <v>1</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="N58" s="5">
+        <v>5594.93</v>
+      </c>
+      <c r="O58" s="5">
+        <v>5594.9</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>0.34</v>
+      </c>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
@@ -4177,12 +4432,24 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
+      <c r="L59" s="5">
+        <v>1</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="N59" s="5">
+        <v>4232.79</v>
+      </c>
+      <c r="O59" s="5">
+        <v>4232.79</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>0.31</v>
+      </c>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
@@ -4239,12 +4506,24 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
+      <c r="L60" s="5">
+        <v>1</v>
+      </c>
+      <c r="M60" s="5">
+        <v>11.53</v>
+      </c>
+      <c r="N60" s="5">
+        <v>4186.68</v>
+      </c>
+      <c r="O60" s="5">
+        <v>4186.68</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>11.95</v>
+      </c>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
@@ -4301,12 +4580,24 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
+      <c r="L61" s="5">
+        <v>1</v>
+      </c>
+      <c r="M61" s="5">
+        <v>14.4</v>
+      </c>
+      <c r="N61" s="5">
+        <v>5466.67</v>
+      </c>
+      <c r="O61" s="5">
+        <v>5466.67</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>15.95</v>
+      </c>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
@@ -4363,12 +4654,24 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
+      <c r="L62" s="5">
+        <v>1</v>
+      </c>
+      <c r="M62" s="5">
+        <v>211.22</v>
+      </c>
+      <c r="N62" s="5">
+        <v>7349.34</v>
+      </c>
+      <c r="O62" s="5">
+        <v>7349.3</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>318.58999999999997</v>
+      </c>
       <c r="R62" s="6"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
@@ -4425,12 +4728,24 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
+      <c r="L63" s="5">
+        <v>1</v>
+      </c>
+      <c r="M63" s="5">
+        <v>454.85</v>
+      </c>
+      <c r="N63" s="5">
+        <v>6471.1</v>
+      </c>
+      <c r="O63" s="5">
+        <v>6471.1</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>748.15</v>
+      </c>
       <c r="R63" s="6"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
@@ -4487,12 +4802,24 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
+      <c r="L64" s="5">
+        <v>1</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="N64" s="5">
+        <v>7563.38</v>
+      </c>
+      <c r="O64" s="5">
+        <v>7563.38</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>0.68</v>
+      </c>
       <c r="R64" s="6"/>
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
@@ -4549,12 +4876,24 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
+      <c r="L65" s="5">
+        <v>1</v>
+      </c>
+      <c r="M65" s="5">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="N65" s="5">
+        <v>6279.57</v>
+      </c>
+      <c r="O65" s="5">
+        <v>6279.57</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>6.22</v>
+      </c>
       <c r="R65" s="6"/>
       <c r="S65" s="6"/>
       <c r="T65" s="6"/>
@@ -4611,12 +4950,24 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
+      <c r="L66" s="5">
+        <v>1</v>
+      </c>
+      <c r="M66" s="5">
+        <v>181.47</v>
+      </c>
+      <c r="N66" s="5">
+        <v>8695.27</v>
+      </c>
+      <c r="O66" s="5">
+        <v>8695.27</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>355.25</v>
+      </c>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
@@ -4673,12 +5024,24 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="5">
+        <v>1297.31</v>
+      </c>
+      <c r="N67" s="5">
+        <v>7914.4</v>
+      </c>
+      <c r="O67" s="5">
+        <v>9812.6</v>
+      </c>
+      <c r="P67" s="5">
+        <v>19.34</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>1800</v>
+      </c>
       <c r="R67" s="6"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
@@ -4735,12 +5098,24 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+      <c r="M68" s="5">
+        <v>1358.09</v>
+      </c>
+      <c r="N68" s="5">
+        <v>7974.28</v>
+      </c>
+      <c r="O68" s="5">
+        <v>9677.7000000000007</v>
+      </c>
+      <c r="P68" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>1800</v>
+      </c>
       <c r="R68" s="6"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
@@ -4797,12 +5172,24 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
+      <c r="L69" s="5">
+        <v>1</v>
+      </c>
+      <c r="M69" s="5">
+        <v>449.97</v>
+      </c>
+      <c r="N69" s="5">
+        <v>7733.56</v>
+      </c>
+      <c r="O69" s="5">
+        <v>7733.56</v>
+      </c>
+      <c r="P69" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>954.69</v>
+      </c>
       <c r="R69" s="6"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
@@ -4859,12 +5246,24 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
+      <c r="M70" s="5">
+        <v>1179.05</v>
+      </c>
+      <c r="N70" s="5">
+        <v>6295.08</v>
+      </c>
+      <c r="O70" s="5">
+        <v>8695.9</v>
+      </c>
+      <c r="P70" s="5">
+        <v>27.61</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>1800</v>
+      </c>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
@@ -4921,12 +5320,24 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
+      <c r="L71" s="5">
+        <v>0</v>
+      </c>
+      <c r="M71" s="5">
+        <v>1671.38</v>
+      </c>
+      <c r="N71" s="5">
+        <v>9803.49</v>
+      </c>
+      <c r="O71" s="5">
+        <v>14515.8</v>
+      </c>
+      <c r="P71" s="5">
+        <v>32.46</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>1800</v>
+      </c>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
@@ -4983,12 +5394,24 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
+      <c r="L72" s="5">
+        <v>0</v>
+      </c>
+      <c r="M72" s="5">
+        <v>1654.44</v>
+      </c>
+      <c r="N72" s="5">
+        <v>9889.69</v>
+      </c>
+      <c r="O72" s="5">
+        <v>16379.6</v>
+      </c>
+      <c r="P72" s="5">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>1800</v>
+      </c>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
@@ -5045,12 +5468,24 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
+      <c r="L73" s="5">
+        <v>0</v>
+      </c>
+      <c r="M73" s="5">
+        <v>1538.57</v>
+      </c>
+      <c r="N73" s="5">
+        <v>9064.93</v>
+      </c>
+      <c r="O73" s="5">
+        <v>16137.9</v>
+      </c>
+      <c r="P73" s="5">
+        <v>43.83</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>1800</v>
+      </c>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
@@ -5107,12 +5542,24 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
+      <c r="L74" s="5">
+        <v>0</v>
+      </c>
+      <c r="M74" s="5">
+        <v>1566.54</v>
+      </c>
+      <c r="N74" s="5">
+        <v>10539.02</v>
+      </c>
+      <c r="O74" s="5">
+        <v>14087.6</v>
+      </c>
+      <c r="P74" s="5">
+        <v>25.19</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>1800</v>
+      </c>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
@@ -5169,12 +5616,24 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
+      <c r="L75" s="5">
+        <v>0</v>
+      </c>
+      <c r="M75" s="5">
+        <v>1548.96</v>
+      </c>
+      <c r="N75" s="5">
+        <v>8556.33</v>
+      </c>
+      <c r="O75" s="5">
+        <v>14967.3</v>
+      </c>
+      <c r="P75" s="5">
+        <v>42.83</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>1800</v>
+      </c>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
@@ -9115,22 +9574,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="N4:S4"/>
     <mergeCell ref="N11:S11"/>
     <mergeCell ref="N12:S12"/>
-    <mergeCell ref="X14:AA14"/>
+    <mergeCell ref="AG14:AJ14"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="L14:Q14"/>
     <mergeCell ref="AB14:AF14"/>
     <mergeCell ref="R14:W14"/>
     <mergeCell ref="N9:S9"/>
     <mergeCell ref="N8:S8"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="N4:S4"/>
     <mergeCell ref="N6:S6"/>
+    <mergeCell ref="X14:AA14"/>
     <mergeCell ref="N7:S7"/>
     <mergeCell ref="F14:K14"/>
     <mergeCell ref="N10:S10"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="L14:Q14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/docs/model_results.xlsx
+++ b/docs/model_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/DC2057430E44BE2F/Documents/Year 4/Semester 2/Math3205/Project/MATH3205_MPDPTW_Project/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_2731D1E4D5CED94C93F2CA115032983341BA1AF7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{597D4EAD-65AD-4765-8D19-82E8FDAEBF0B}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_2731D1E4D5CED94C93F2CA115032983341BA1AF7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25CF1C7E-783A-44EB-8F14-B0DB89ED9F27}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -751,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -806,32 +806,31 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,6 +846,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1168,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AP259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ26" zoomScale="99" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13:U13"/>
+    <sheetView tabSelected="1" topLeftCell="AK15" zoomScale="80" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AP34" sqref="AP34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1208,183 +1211,178 @@
   </cols>
   <sheetData>
     <row r="3" spans="8:42">
-      <c r="P3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="26"/>
+      <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="28"/>
     </row>
     <row r="4" spans="8:42">
-      <c r="P4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="26"/>
+      <c r="P4" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="28"/>
     </row>
     <row r="5" spans="8:42">
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="26"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="28"/>
     </row>
     <row r="6" spans="8:42">
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="26"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="28"/>
     </row>
     <row r="7" spans="8:42">
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="26"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="28"/>
     </row>
     <row r="8" spans="8:42">
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="26"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="28"/>
     </row>
     <row r="9" spans="8:42">
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="26"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="28"/>
     </row>
     <row r="10" spans="8:42">
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="26"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
     </row>
     <row r="11" spans="8:42">
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="26"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="28"/>
     </row>
     <row r="12" spans="8:42">
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="26"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="28"/>
     </row>
     <row r="13" spans="8:42">
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="26"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="28"/>
     </row>
     <row r="14" spans="8:42">
-      <c r="P14" s="24" t="s">
+      <c r="P14" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="26"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="28"/>
     </row>
     <row r="15" spans="8:42">
-      <c r="P15" s="34"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
+      <c r="P15" s="25"/>
     </row>
     <row r="16" spans="8:42">
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="31" t="s">
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="30" t="s">
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="31" t="s">
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="29"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="31"/>
       <c r="AD16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="31" t="s">
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="31"/>
+      <c r="AI16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="29"/>
-      <c r="AM16" s="27" t="s">
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="29"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="31"/>
     </row>
     <row r="17" spans="2:42" ht="30" customHeight="1">
       <c r="B17" s="1" t="s">
@@ -1402,7 +1400,7 @@
       <c r="F17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="24" t="s">
         <v>156</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -3555,7 +3553,7 @@
         <v>11461.2</v>
       </c>
       <c r="AP33" s="5">
-        <f t="shared" si="2"/>
+        <f>ROUND(100*(AO33-AF33)/AO33,2)</f>
         <v>0.03</v>
       </c>
     </row>
@@ -9824,7 +9822,7 @@
         <v>6136.9477930000003</v>
       </c>
       <c r="AN82" s="6">
-        <f t="shared" ref="AN82:AN113" si="6">ROUND(100*(AM82-AF82)/AM82,2)</f>
+        <f t="shared" ref="AN82:AN112" si="6">ROUND(100*(AM82-AF82)/AM82,2)</f>
         <v>0</v>
       </c>
       <c r="AO82" s="5">
@@ -9832,7 +9830,7 @@
         <v>6136.9</v>
       </c>
       <c r="AP82" s="5">
-        <f t="shared" ref="AP82:AP113" si="8">ROUND(100*(AO82-AF82)/AO82,2)</f>
+        <f t="shared" ref="AP82:AP112" si="8">ROUND(100*(AO82-AF82)/AO82,2)</f>
         <v>0</v>
       </c>
     </row>
@@ -16869,6 +16867,10 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AM16:AP16"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="P10:U10"/>
     <mergeCell ref="P3:U3"/>
     <mergeCell ref="P4:U4"/>
     <mergeCell ref="AI16:AL16"/>
@@ -16884,10 +16886,6 @@
     <mergeCell ref="T16:Y16"/>
     <mergeCell ref="P9:U9"/>
     <mergeCell ref="P6:U6"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="P10:U10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/docs/model_results.xlsx
+++ b/docs/model_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/DC2057430E44BE2F/Documents/Year 4/Semester 2/Math3205/Project/MATH3205_MPDPTW_Project/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_2731D1E4D5CED94C93F2CA115032983341BA1AF7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25CF1C7E-783A-44EB-8F14-B0DB89ED9F27}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_2731D1E4D5CED94C93F2CA115032983341BA1AF7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0BB1BE2-3840-4A2C-B7E4-69E15D2ED02B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="163">
   <si>
     <t xml:space="preserve"> r = number of requests per instance</t>
   </si>
@@ -1171,8 +1171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AP259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK15" zoomScale="80" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="AP34" sqref="AP34"/>
+    <sheetView tabSelected="1" topLeftCell="W111" zoomScale="84" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AJ119" sqref="AJ119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1625,15 +1625,15 @@
         <v>4585.850993</v>
       </c>
       <c r="AN18" s="6">
-        <f t="shared" ref="AN18:AN49" si="0">ROUND(100*(AM18-AF18)/AM18,2)</f>
+        <f>ROUND(100*(AF18-AM18)/AM18,2)</f>
         <v>0</v>
       </c>
       <c r="AO18" s="5">
-        <f t="shared" ref="AO18:AO49" si="1">MIN(K18,Q18,W18)</f>
+        <f t="shared" ref="AO18:AO49" si="0">MIN(K18,Q18,W18)</f>
         <v>4585.8500000000004</v>
       </c>
       <c r="AP18" s="5">
-        <f t="shared" ref="AP18:AP49" si="2">ROUND(100*(AO18-AF18)/AO18,2)</f>
+        <f>ROUND(100*(AF18-AO18)/AO18,2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1753,15 +1753,15 @@
         <v>4017.9291109999999</v>
       </c>
       <c r="AN19" s="6">
+        <f t="shared" ref="AN19:AN82" si="1">ROUND(100*(AF19-AM19)/AM19,2)</f>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO19" s="5">
-        <f t="shared" si="1"/>
         <v>4017.9</v>
       </c>
       <c r="AP19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AP19:AP82" si="2">ROUND(100*(AF19-AO19)/AO19,2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1881,11 +1881,11 @@
         <v>4713.7492030000003</v>
       </c>
       <c r="AN20" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO20" s="5">
-        <f t="shared" si="1"/>
         <v>4713.7</v>
       </c>
       <c r="AP20" s="5">
@@ -2009,11 +2009,11 @@
         <v>3872.6010940000001</v>
       </c>
       <c r="AN21" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO21" s="5">
-        <f t="shared" si="1"/>
         <v>3872.6</v>
       </c>
       <c r="AP21" s="5">
@@ -2137,11 +2137,11 @@
         <v>3397.6564090000002</v>
       </c>
       <c r="AN22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO22" s="5">
-        <f t="shared" si="1"/>
         <v>3397.66</v>
       </c>
       <c r="AP22" s="5">
@@ -2265,11 +2265,11 @@
         <v>5791.6077050000004</v>
       </c>
       <c r="AN23" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO23" s="5">
-        <f t="shared" si="1"/>
         <v>5791.6</v>
       </c>
       <c r="AP23" s="5">
@@ -2393,11 +2393,11 @@
         <v>5470.9332729999996</v>
       </c>
       <c r="AN24" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO24" s="5">
-        <f t="shared" si="1"/>
         <v>5470.9</v>
       </c>
       <c r="AP24" s="5">
@@ -2521,11 +2521,11 @@
         <v>5387.3496320000004</v>
       </c>
       <c r="AN25" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO25" s="5">
-        <f t="shared" si="1"/>
         <v>5387.3</v>
       </c>
       <c r="AP25" s="5">
@@ -2649,11 +2649,11 @@
         <v>6257.4958580000002</v>
       </c>
       <c r="AN26" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO26" s="5">
-        <f t="shared" si="1"/>
         <v>6257.49</v>
       </c>
       <c r="AP26" s="5">
@@ -2777,11 +2777,11 @@
         <v>5368.0209089999998</v>
       </c>
       <c r="AN27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO27" s="5">
-        <f t="shared" si="1"/>
         <v>5368</v>
       </c>
       <c r="AP27" s="5">
@@ -2905,11 +2905,11 @@
         <v>7351.5762000000004</v>
       </c>
       <c r="AN28" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO28" s="5">
-        <f t="shared" si="1"/>
         <v>7351.58</v>
       </c>
       <c r="AP28" s="5">
@@ -3033,11 +3033,11 @@
         <v>7253.3899350000002</v>
       </c>
       <c r="AN29" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO29" s="5">
-        <f t="shared" si="1"/>
         <v>7253.4</v>
       </c>
       <c r="AP29" s="5">
@@ -3161,11 +3161,11 @@
         <v>7485.0224719999997</v>
       </c>
       <c r="AN30" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO30" s="5">
-        <f t="shared" si="1"/>
         <v>7485</v>
       </c>
       <c r="AP30" s="5">
@@ -3289,11 +3289,11 @@
         <v>6604.9399869999997</v>
       </c>
       <c r="AN31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO31" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO31" s="5">
-        <f t="shared" si="1"/>
         <v>6604.9</v>
       </c>
       <c r="AP31" s="5">
@@ -3417,11 +3417,11 @@
         <v>7370.878248</v>
       </c>
       <c r="AN32" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO32" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO32" s="5">
-        <f t="shared" si="1"/>
         <v>7370.9</v>
       </c>
       <c r="AP32" s="5">
@@ -3545,16 +3545,16 @@
         <v>11461.176727</v>
       </c>
       <c r="AN33" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.03</v>
+      </c>
+      <c r="AO33" s="5">
         <f t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
-      <c r="AO33" s="5">
-        <f t="shared" si="1"/>
         <v>11461.2</v>
       </c>
       <c r="AP33" s="5">
-        <f>ROUND(100*(AO33-AF33)/AO33,2)</f>
-        <v>0.03</v>
+        <f t="shared" si="2"/>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="34" spans="2:42">
@@ -3673,11 +3673,11 @@
         <v>12856.602923</v>
       </c>
       <c r="AN34" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO34" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO34" s="5">
-        <f t="shared" si="1"/>
         <v>12856.6</v>
       </c>
       <c r="AP34" s="5">
@@ -3801,11 +3801,11 @@
         <v>12966.970504999999</v>
       </c>
       <c r="AN35" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO35" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO35" s="5">
-        <f t="shared" si="1"/>
         <v>12967</v>
       </c>
       <c r="AP35" s="5">
@@ -3929,11 +3929,11 @@
         <v>11111.412855</v>
       </c>
       <c r="AN36" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO36" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO36" s="5">
-        <f t="shared" si="1"/>
         <v>11111.4</v>
       </c>
       <c r="AP36" s="5">
@@ -4057,11 +4057,11 @@
         <v>11906.537872999999</v>
       </c>
       <c r="AN37" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO37" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO37" s="5">
-        <f t="shared" si="1"/>
         <v>11906.5</v>
       </c>
       <c r="AP37" s="5">
@@ -4185,11 +4185,11 @@
         <v>3681.0239790000001</v>
       </c>
       <c r="AN38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO38" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO38" s="5">
-        <f t="shared" si="1"/>
         <v>3681</v>
       </c>
       <c r="AP38" s="5">
@@ -4313,11 +4313,11 @@
         <v>4195.2753640000001</v>
       </c>
       <c r="AN39" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO39" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO39" s="5">
-        <f t="shared" si="1"/>
         <v>4195.2700000000004</v>
       </c>
       <c r="AP39" s="5">
@@ -4441,11 +4441,11 @@
         <v>3976.1063859999999</v>
       </c>
       <c r="AN40" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO40" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO40" s="5">
-        <f t="shared" si="1"/>
         <v>3976.1</v>
       </c>
       <c r="AP40" s="5">
@@ -4569,11 +4569,11 @@
         <v>4130.908555</v>
       </c>
       <c r="AN41" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO41" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO41" s="5">
-        <f t="shared" si="1"/>
         <v>4130.8999999999996</v>
       </c>
       <c r="AP41" s="5">
@@ -4697,11 +4697,11 @@
         <v>6136.9477930000003</v>
       </c>
       <c r="AN42" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO42" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO42" s="5">
-        <f t="shared" si="1"/>
         <v>6136.9</v>
       </c>
       <c r="AP42" s="5">
@@ -4825,11 +4825,11 @@
         <v>5758.6807470000003</v>
       </c>
       <c r="AN43" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO43" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO43" s="5">
-        <f t="shared" si="1"/>
         <v>5758.68</v>
       </c>
       <c r="AP43" s="5">
@@ -4953,11 +4953,11 @@
         <v>5832.1991079999998</v>
       </c>
       <c r="AN44" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO44" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO44" s="5">
-        <f t="shared" si="1"/>
         <v>5832.2</v>
       </c>
       <c r="AP44" s="5">
@@ -5082,11 +5082,11 @@
         <v>5656.3550359999999</v>
       </c>
       <c r="AN45" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO45" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO45" s="5">
-        <f t="shared" si="1"/>
         <v>5656.35</v>
       </c>
       <c r="AP45" s="5">
@@ -5210,11 +5210,11 @@
         <v>5597.2195860000002</v>
       </c>
       <c r="AN46" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO46" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO46" s="5">
-        <f t="shared" si="1"/>
         <v>5597.2</v>
       </c>
       <c r="AP46" s="5">
@@ -5338,11 +5338,11 @@
         <v>6693.2399969999997</v>
       </c>
       <c r="AN47" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO47" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO47" s="5">
-        <f t="shared" si="1"/>
         <v>6693.2</v>
       </c>
       <c r="AP47" s="5">
@@ -5466,11 +5466,11 @@
         <v>6221.1468619999996</v>
       </c>
       <c r="AN48" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO48" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO48" s="5">
-        <f t="shared" si="1"/>
         <v>6221.1</v>
       </c>
       <c r="AP48" s="5">
@@ -5595,11 +5595,11 @@
         <v>8221.5395329999992</v>
       </c>
       <c r="AN49" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO49" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO49" s="5">
-        <f t="shared" si="1"/>
         <v>8221.5</v>
       </c>
       <c r="AP49" s="5">
@@ -5724,16 +5724,16 @@
         <v>7125.3721219999998</v>
       </c>
       <c r="AN50" s="6">
-        <f t="shared" ref="AN50:AN81" si="3">ROUND(100*(AM50-AF50)/AM50,2)</f>
-        <v>0.76</v>
+        <f t="shared" si="1"/>
+        <v>-0.76</v>
       </c>
       <c r="AO50" s="18">
-        <f t="shared" ref="AO50:AO81" si="4">MIN(K50,Q50,W50)</f>
+        <f t="shared" ref="AO50:AO81" si="3">MIN(K50,Q50,W50)</f>
         <v>7125.3721219999998</v>
       </c>
       <c r="AP50" s="5">
-        <f t="shared" ref="AP50:AP81" si="5">ROUND(100*(AO50-AF50)/AO50,2)</f>
-        <v>0.76</v>
+        <f t="shared" si="2"/>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="51" spans="2:42">
@@ -5853,15 +5853,15 @@
         <v>6621.8288030000003</v>
       </c>
       <c r="AN51" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO51" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO51" s="5">
-        <f t="shared" si="4"/>
         <v>6621.8</v>
       </c>
       <c r="AP51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5982,15 +5982,15 @@
         <v>8650.6131069999992</v>
       </c>
       <c r="AN52" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO52" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO52" s="5">
-        <f t="shared" si="4"/>
         <v>8650.6</v>
       </c>
       <c r="AP52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6110,16 +6110,16 @@
         <v>12809.533106999999</v>
       </c>
       <c r="AN53" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+      <c r="AO53" s="5">
         <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="AO53" s="5">
-        <f t="shared" si="4"/>
         <v>12809.5</v>
       </c>
       <c r="AP53" s="5">
-        <f t="shared" si="5"/>
-        <v>0.2</v>
+        <f t="shared" si="2"/>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="54" spans="2:42">
@@ -6238,15 +6238,15 @@
         <v>15043.142532</v>
       </c>
       <c r="AN54" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO54" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO54" s="5">
-        <f t="shared" si="4"/>
         <v>15043.1</v>
       </c>
       <c r="AP54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6366,16 +6366,16 @@
         <v>14971.627595</v>
       </c>
       <c r="AN55" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.36</v>
+      </c>
+      <c r="AO55" s="5">
         <f t="shared" si="3"/>
-        <v>0.36</v>
-      </c>
-      <c r="AO55" s="5">
-        <f t="shared" si="4"/>
         <v>14971.6</v>
       </c>
       <c r="AP55" s="5">
-        <f t="shared" si="5"/>
-        <v>0.36</v>
+        <f t="shared" si="2"/>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="56" spans="2:42">
@@ -6494,15 +6494,15 @@
         <v>12720.690229</v>
       </c>
       <c r="AN56" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO56" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO56" s="5">
-        <f t="shared" si="4"/>
         <v>12720.7</v>
       </c>
       <c r="AP56" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6622,15 +6622,15 @@
         <v>14109.604169</v>
       </c>
       <c r="AN57" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO57" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO57" s="5">
-        <f t="shared" si="4"/>
         <v>14109.6</v>
       </c>
       <c r="AP57" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6750,15 +6750,15 @@
         <v>5108.860823</v>
       </c>
       <c r="AN58" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO58" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO58" s="5">
-        <f t="shared" si="4"/>
         <v>5108.8599999999997</v>
       </c>
       <c r="AP58" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6878,15 +6878,15 @@
         <v>4550.871631</v>
       </c>
       <c r="AN59" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO59" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO59" s="5">
-        <f t="shared" si="4"/>
         <v>4550.87</v>
       </c>
       <c r="AP59" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7006,15 +7006,15 @@
         <v>5594.9323130000002</v>
       </c>
       <c r="AN60" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO60" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO60" s="5">
-        <f t="shared" si="4"/>
         <v>5594.9</v>
       </c>
       <c r="AP60" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7134,15 +7134,15 @@
         <v>4232.7889839999998</v>
       </c>
       <c r="AN61" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO61" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO61" s="5">
-        <f t="shared" si="4"/>
         <v>4232.79</v>
       </c>
       <c r="AP61" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7262,15 +7262,15 @@
         <v>4186.6809080000003</v>
       </c>
       <c r="AN62" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO62" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO62" s="5">
-        <f t="shared" si="4"/>
         <v>4186.68</v>
       </c>
       <c r="AP62" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7390,15 +7390,15 @@
         <v>5466.6705410000004</v>
       </c>
       <c r="AN63" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO63" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO63" s="5">
-        <f t="shared" si="4"/>
         <v>5466.67</v>
       </c>
       <c r="AP63" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7518,15 +7518,15 @@
         <v>7349.3385770000004</v>
       </c>
       <c r="AN64" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO64" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO64" s="5">
-        <f t="shared" si="4"/>
         <v>7349.3</v>
       </c>
       <c r="AP64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7646,15 +7646,15 @@
         <v>6471.0955679999997</v>
       </c>
       <c r="AN65" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO65" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO65" s="5">
-        <f t="shared" si="4"/>
         <v>6471.1</v>
       </c>
       <c r="AP65" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7774,15 +7774,15 @@
         <v>7563.3776360000002</v>
       </c>
       <c r="AN66" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO66" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO66" s="5">
-        <f t="shared" si="4"/>
         <v>7563.38</v>
       </c>
       <c r="AP66" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7902,15 +7902,15 @@
         <v>6279.5688680000003</v>
       </c>
       <c r="AN67" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO67" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO67" s="5">
-        <f t="shared" si="4"/>
         <v>6279.57</v>
       </c>
       <c r="AP67" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8030,15 +8030,15 @@
         <v>8695.2675099999997</v>
       </c>
       <c r="AN68" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO68" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO68" s="5">
-        <f t="shared" si="4"/>
         <v>8695.26</v>
       </c>
       <c r="AP68" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8158,15 +8158,15 @@
         <v>9812.6221530000003</v>
       </c>
       <c r="AN69" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO69" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO69" s="5">
-        <f t="shared" si="4"/>
         <v>9812.6</v>
       </c>
       <c r="AP69" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8286,15 +8286,15 @@
         <v>9677.7396219999991</v>
       </c>
       <c r="AN70" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO70" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO70" s="5">
-        <f t="shared" si="4"/>
         <v>9677.7000000000007</v>
       </c>
       <c r="AP70" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8414,15 +8414,15 @@
         <v>7733.5560930000001</v>
       </c>
       <c r="AN71" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO71" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO71" s="5">
-        <f t="shared" si="4"/>
         <v>7733.56</v>
       </c>
       <c r="AP71" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8542,15 +8542,15 @@
         <v>8695.9445539999997</v>
       </c>
       <c r="AN72" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO72" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO72" s="5">
-        <f t="shared" si="4"/>
         <v>8695.9</v>
       </c>
       <c r="AP72" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8670,15 +8670,15 @@
         <v>14515.764090999999</v>
       </c>
       <c r="AN73" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO73" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO73" s="5">
-        <f t="shared" si="4"/>
         <v>14515.76</v>
       </c>
       <c r="AP73" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8798,16 +8798,16 @@
         <v>16379.635539000001</v>
       </c>
       <c r="AN74" s="6">
+        <f t="shared" si="1"/>
+        <v>-0.08</v>
+      </c>
+      <c r="AO74" s="5">
         <f t="shared" si="3"/>
-        <v>0.08</v>
-      </c>
-      <c r="AO74" s="5">
-        <f t="shared" si="4"/>
         <v>16379.6</v>
       </c>
       <c r="AP74" s="5">
-        <f t="shared" si="5"/>
-        <v>0.08</v>
+        <f t="shared" si="2"/>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="75" spans="2:42">
@@ -8926,15 +8926,15 @@
         <v>16137.858692</v>
       </c>
       <c r="AN75" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO75" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO75" s="5">
-        <f t="shared" si="4"/>
         <v>16137.9</v>
       </c>
       <c r="AP75" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9054,15 +9054,15 @@
         <v>14087.594786</v>
       </c>
       <c r="AN76" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO76" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO76" s="5">
-        <f t="shared" si="4"/>
         <v>14087.6</v>
       </c>
       <c r="AP76" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9182,15 +9182,15 @@
         <v>14967.323995999999</v>
       </c>
       <c r="AN77" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO77" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO77" s="5">
-        <f t="shared" si="4"/>
         <v>14967.3</v>
       </c>
       <c r="AP77" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9310,15 +9310,15 @@
         <v>4410.4646549999998</v>
       </c>
       <c r="AN78" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO78" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO78" s="5">
-        <f t="shared" si="4"/>
         <v>4410.46</v>
       </c>
       <c r="AP78" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9438,15 +9438,15 @@
         <v>4223.5109249999996</v>
       </c>
       <c r="AN79" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO79" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO79" s="5">
-        <f t="shared" si="4"/>
         <v>4223.5</v>
       </c>
       <c r="AP79" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9566,15 +9566,15 @@
         <v>4119.5908600000002</v>
       </c>
       <c r="AN80" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO80" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO80" s="5">
-        <f t="shared" si="4"/>
         <v>4119.59</v>
       </c>
       <c r="AP80" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9694,15 +9694,15 @@
         <v>4340.3017470000004</v>
       </c>
       <c r="AN81" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO81" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AO81" s="5">
-        <f t="shared" si="4"/>
         <v>4340.3</v>
       </c>
       <c r="AP81" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9822,15 +9822,15 @@
         <v>6136.9477930000003</v>
       </c>
       <c r="AN82" s="6">
-        <f t="shared" ref="AN82:AN112" si="6">ROUND(100*(AM82-AF82)/AM82,2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AO82" s="5">
-        <f t="shared" ref="AO82:AO112" si="7">MIN(K82,Q82,W82)</f>
+        <f t="shared" ref="AO82:AO112" si="4">MIN(K82,Q82,W82)</f>
         <v>6136.9</v>
       </c>
       <c r="AP82" s="5">
-        <f t="shared" ref="AP82:AP112" si="8">ROUND(100*(AO82-AF82)/AO82,2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9950,15 +9950,15 @@
         <v>6083.3266860000003</v>
       </c>
       <c r="AN83" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AN83:AN137" si="5">ROUND(100*(AF83-AM83)/AM83,2)</f>
         <v>0</v>
       </c>
       <c r="AO83" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6083.3</v>
       </c>
       <c r="AP83" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AP83:AP137" si="6">ROUND(100*(AF83-AO83)/AO83,2)</f>
         <v>0</v>
       </c>
     </row>
@@ -10078,15 +10078,15 @@
         <v>6623.0298659999999</v>
       </c>
       <c r="AN84" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO84" s="5">
+        <f t="shared" si="4"/>
+        <v>6623</v>
+      </c>
+      <c r="AP84" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO84" s="5">
-        <f t="shared" si="7"/>
-        <v>6623</v>
-      </c>
-      <c r="AP84" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10206,15 +10206,15 @@
         <v>6187.4814470000001</v>
       </c>
       <c r="AN85" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO85" s="5">
+        <f t="shared" si="4"/>
+        <v>6187.48</v>
+      </c>
+      <c r="AP85" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO85" s="5">
-        <f t="shared" si="7"/>
-        <v>6187.48</v>
-      </c>
-      <c r="AP85" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10334,15 +10334,15 @@
         <v>6343.2617399999999</v>
       </c>
       <c r="AN86" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO86" s="5">
+        <f t="shared" si="4"/>
+        <v>6343.26</v>
+      </c>
+      <c r="AP86" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO86" s="5">
-        <f t="shared" si="7"/>
-        <v>6343.26</v>
-      </c>
-      <c r="AP86" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10462,15 +10462,15 @@
         <v>6408.9949349999997</v>
       </c>
       <c r="AN87" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO87" s="5">
+        <f t="shared" si="4"/>
+        <v>6408.99</v>
+      </c>
+      <c r="AP87" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO87" s="5">
-        <f t="shared" si="7"/>
-        <v>6408.99</v>
-      </c>
-      <c r="AP87" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10590,15 +10590,15 @@
         <v>7631.9660039999999</v>
       </c>
       <c r="AN88" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO88" s="5">
+        <f t="shared" si="4"/>
+        <v>7631.97</v>
+      </c>
+      <c r="AP88" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO88" s="5">
-        <f t="shared" si="7"/>
-        <v>7631.97</v>
-      </c>
-      <c r="AP88" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10718,15 +10718,15 @@
         <v>9206.3400590000001</v>
       </c>
       <c r="AN89" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO89" s="5">
+        <f t="shared" si="4"/>
+        <v>9206.2999999999993</v>
+      </c>
+      <c r="AP89" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO89" s="5">
-        <f t="shared" si="7"/>
-        <v>9206.2999999999993</v>
-      </c>
-      <c r="AP89" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10846,15 +10846,15 @@
         <v>8594.0668459999997</v>
       </c>
       <c r="AN90" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO90" s="5">
+        <f t="shared" si="4"/>
+        <v>8594.07</v>
+      </c>
+      <c r="AP90" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO90" s="5">
-        <f t="shared" si="7"/>
-        <v>8594.07</v>
-      </c>
-      <c r="AP90" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10974,15 +10974,15 @@
         <v>7974.3364339999998</v>
       </c>
       <c r="AN91" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO91" s="5">
+        <f t="shared" si="4"/>
+        <v>7974.3</v>
+      </c>
+      <c r="AP91" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO91" s="5">
-        <f t="shared" si="7"/>
-        <v>7974.3</v>
-      </c>
-      <c r="AP91" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11102,15 +11102,15 @@
         <v>9201.6532900000002</v>
       </c>
       <c r="AN92" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO92" s="5">
+        <f t="shared" si="4"/>
+        <v>9201.65</v>
+      </c>
+      <c r="AP92" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO92" s="5">
-        <f t="shared" si="7"/>
-        <v>9201.65</v>
-      </c>
-      <c r="AP92" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11230,15 +11230,15 @@
         <v>15832.661242</v>
       </c>
       <c r="AN93" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO93" s="5">
+        <f t="shared" si="4"/>
+        <v>15832.66</v>
+      </c>
+      <c r="AP93" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO93" s="5">
-        <f t="shared" si="7"/>
-        <v>15832.66</v>
-      </c>
-      <c r="AP93" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11358,15 +11358,15 @@
         <v>16683.817200000001</v>
       </c>
       <c r="AN94" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO94" s="5">
+        <f t="shared" si="4"/>
+        <v>16683.8</v>
+      </c>
+      <c r="AP94" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO94" s="5">
-        <f t="shared" si="7"/>
-        <v>16683.8</v>
-      </c>
-      <c r="AP94" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11486,15 +11486,15 @@
         <v>18761.397099999998</v>
       </c>
       <c r="AN95" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO95" s="5">
+        <f t="shared" si="4"/>
+        <v>18761.400000000001</v>
+      </c>
+      <c r="AP95" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO95" s="5">
-        <f t="shared" si="7"/>
-        <v>18761.400000000001</v>
-      </c>
-      <c r="AP95" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11614,15 +11614,15 @@
         <v>16057.050907999999</v>
       </c>
       <c r="AN96" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO96" s="5">
+        <f t="shared" si="4"/>
+        <v>16057.05</v>
+      </c>
+      <c r="AP96" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO96" s="5">
-        <f t="shared" si="7"/>
-        <v>16057.05</v>
-      </c>
-      <c r="AP96" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11742,15 +11742,15 @@
         <v>17136.067546999999</v>
       </c>
       <c r="AN97" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO97" s="5">
+        <f t="shared" si="4"/>
+        <v>17136.07</v>
+      </c>
+      <c r="AP97" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO97" s="5">
-        <f t="shared" si="7"/>
-        <v>17136.07</v>
-      </c>
-      <c r="AP97" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11870,15 +11870,15 @@
         <v>3979.5017549999998</v>
       </c>
       <c r="AN98" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO98" s="5">
+        <f t="shared" si="4"/>
+        <v>3979.5</v>
+      </c>
+      <c r="AP98" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO98" s="5">
-        <f t="shared" si="7"/>
-        <v>3979.5</v>
-      </c>
-      <c r="AP98" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -11998,15 +11998,15 @@
         <v>3101.3287799999998</v>
       </c>
       <c r="AN99" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO99" s="5">
+        <f t="shared" si="4"/>
+        <v>3101.3</v>
+      </c>
+      <c r="AP99" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO99" s="5">
-        <f t="shared" si="7"/>
-        <v>3101.3</v>
-      </c>
-      <c r="AP99" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12126,15 +12126,15 @@
         <v>3152.7336479999999</v>
       </c>
       <c r="AN100" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO100" s="5">
+        <f t="shared" si="4"/>
+        <v>3152.7</v>
+      </c>
+      <c r="AP100" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO100" s="5">
-        <f t="shared" si="7"/>
-        <v>3152.7</v>
-      </c>
-      <c r="AP100" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12254,15 +12254,15 @@
         <v>2624.4913240000001</v>
       </c>
       <c r="AN101" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO101" s="5">
+        <f t="shared" si="4"/>
+        <v>2624.49</v>
+      </c>
+      <c r="AP101" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO101" s="5">
-        <f t="shared" si="7"/>
-        <v>2624.49</v>
-      </c>
-      <c r="AP101" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12382,15 +12382,15 @@
         <v>2541.4564399999999</v>
       </c>
       <c r="AN102" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO102" s="5">
+        <f t="shared" si="4"/>
+        <v>2541.46</v>
+      </c>
+      <c r="AP102" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO102" s="5">
-        <f t="shared" si="7"/>
-        <v>2541.46</v>
-      </c>
-      <c r="AP102" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12510,15 +12510,15 @@
         <v>4033.3066530000001</v>
       </c>
       <c r="AN103" s="6">
+        <f t="shared" si="5"/>
+        <v>-4.49</v>
+      </c>
+      <c r="AO103" s="5">
+        <f t="shared" si="4"/>
+        <v>3852.25</v>
+      </c>
+      <c r="AP103" s="5">
         <f t="shared" si="6"/>
-        <v>4.49</v>
-      </c>
-      <c r="AO103" s="5">
-        <f t="shared" si="7"/>
-        <v>3852.25</v>
-      </c>
-      <c r="AP103" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12638,16 +12638,16 @@
         <v>3426.585329</v>
       </c>
       <c r="AN104" s="6">
+        <f t="shared" si="5"/>
+        <v>-8.16</v>
+      </c>
+      <c r="AO104" s="5">
+        <f t="shared" si="4"/>
+        <v>3426.6</v>
+      </c>
+      <c r="AP104" s="5">
         <f t="shared" si="6"/>
-        <v>8.16</v>
-      </c>
-      <c r="AO104" s="5">
-        <f t="shared" si="7"/>
-        <v>3426.6</v>
-      </c>
-      <c r="AP104" s="5">
-        <f t="shared" si="8"/>
-        <v>8.16</v>
+        <v>-8.16</v>
       </c>
     </row>
     <row r="105" spans="2:42">
@@ -12766,15 +12766,15 @@
         <v>4027.8072339999999</v>
       </c>
       <c r="AN105" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO105" s="5">
+        <f t="shared" si="4"/>
+        <v>4027.8</v>
+      </c>
+      <c r="AP105" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO105" s="5">
-        <f t="shared" si="7"/>
-        <v>4027.8</v>
-      </c>
-      <c r="AP105" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12894,15 +12894,15 @@
         <v>4180.7593059999999</v>
       </c>
       <c r="AN106" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO106" s="5">
+        <f t="shared" si="4"/>
+        <v>4180.8</v>
+      </c>
+      <c r="AP106" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO106" s="5">
-        <f t="shared" si="7"/>
-        <v>4180.8</v>
-      </c>
-      <c r="AP106" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13022,15 +13022,15 @@
         <v>4204.8446670000003</v>
       </c>
       <c r="AN107" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO107" s="5">
+        <f t="shared" si="4"/>
+        <v>4204.8</v>
+      </c>
+      <c r="AP107" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO107" s="5">
-        <f t="shared" si="7"/>
-        <v>4204.8</v>
-      </c>
-      <c r="AP107" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13150,15 +13150,15 @@
         <v>5211.1453080000001</v>
       </c>
       <c r="AN108" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO108" s="5">
+        <f t="shared" si="4"/>
+        <v>5211.1000000000004</v>
+      </c>
+      <c r="AP108" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO108" s="5">
-        <f t="shared" si="7"/>
-        <v>5211.1000000000004</v>
-      </c>
-      <c r="AP108" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13278,16 +13278,16 @@
         <v>5257.5581179999999</v>
       </c>
       <c r="AN109" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.27</v>
+      </c>
+      <c r="AO109" s="5">
+        <f t="shared" si="4"/>
+        <v>5257.6</v>
+      </c>
+      <c r="AP109" s="5">
         <f t="shared" si="6"/>
-        <v>0.27</v>
-      </c>
-      <c r="AO109" s="5">
-        <f t="shared" si="7"/>
-        <v>5257.6</v>
-      </c>
-      <c r="AP109" s="5">
-        <f t="shared" si="8"/>
-        <v>0.27</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="110" spans="2:42">
@@ -13406,15 +13406,15 @@
         <v>5662.2178459999996</v>
       </c>
       <c r="AN110" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO110" s="5">
+        <f t="shared" si="4"/>
+        <v>5662.2</v>
+      </c>
+      <c r="AP110" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO110" s="5">
-        <f t="shared" si="7"/>
-        <v>5662.2</v>
-      </c>
-      <c r="AP110" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13534,16 +13534,16 @@
         <v>4437.4103420000001</v>
       </c>
       <c r="AN111" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="AO111" s="5">
+        <f t="shared" si="4"/>
+        <v>4437.3999999999996</v>
+      </c>
+      <c r="AP111" s="5">
         <f t="shared" si="6"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AO111" s="5">
-        <f t="shared" si="7"/>
-        <v>4437.3999999999996</v>
-      </c>
-      <c r="AP111" s="5">
-        <f t="shared" si="8"/>
-        <v>0.28000000000000003</v>
+        <v>-0.28000000000000003</v>
       </c>
     </row>
     <row r="112" spans="2:42">
@@ -13662,15 +13662,15 @@
         <v>4973.2651900000001</v>
       </c>
       <c r="AN112" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AO112" s="5">
+        <f t="shared" si="4"/>
+        <v>4973.3</v>
+      </c>
+      <c r="AP112" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO112" s="5">
-        <f t="shared" si="7"/>
-        <v>4973.3</v>
-      </c>
-      <c r="AP112" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -13759,8 +13759,8 @@
       <c r="AC113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AD113" s="6" t="s">
-        <v>50</v>
+      <c r="AD113" s="6">
+        <v>0</v>
       </c>
       <c r="AE113" s="6" t="s">
         <v>50</v>
@@ -13884,8 +13884,8 @@
       <c r="AC114" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AD114" s="6" t="s">
-        <v>50</v>
+      <c r="AD114" s="6">
+        <v>0</v>
       </c>
       <c r="AE114" s="6" t="s">
         <v>50</v>
@@ -14040,7 +14040,7 @@
         <v>9353.4284160000007</v>
       </c>
       <c r="AN115" s="6">
-        <f>ROUND(100*(AM115-AF115)/AM115,2)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO115" s="5">
@@ -14048,7 +14048,7 @@
         <v>9353.4</v>
       </c>
       <c r="AP115" s="5">
-        <f>ROUND(100*(AO115-AF115)/AO115,2)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14137,8 +14137,8 @@
       <c r="AC116" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AD116" s="6" t="s">
-        <v>50</v>
+      <c r="AD116" s="6">
+        <v>0</v>
       </c>
       <c r="AE116" s="6" t="s">
         <v>50</v>
@@ -14262,8 +14262,8 @@
       <c r="AC117" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AD117" s="6" t="s">
-        <v>50</v>
+      <c r="AD117" s="6">
+        <v>0</v>
       </c>
       <c r="AE117" s="6" t="s">
         <v>50</v>
@@ -14418,15 +14418,15 @@
         <v>2674.1657839999998</v>
       </c>
       <c r="AN118" s="6">
-        <f t="shared" ref="AN118:AN137" si="9">ROUND(100*(AM118-AF118)/AM118,2)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO118" s="5">
-        <f t="shared" ref="AO118:AO137" si="10">MIN(K118,Q118,W118)</f>
+        <f t="shared" ref="AO118:AO137" si="7">MIN(K118,Q118,W118)</f>
         <v>2674.17</v>
       </c>
       <c r="AP118" s="5">
-        <f t="shared" ref="AP118:AP137" si="11">ROUND(100*(AO118-AF118)/AO118,2)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14546,15 +14546,15 @@
         <v>3448.3941639999998</v>
       </c>
       <c r="AN119" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO119" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3448.39</v>
       </c>
       <c r="AP119" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14674,15 +14674,15 @@
         <v>2950.7741169999999</v>
       </c>
       <c r="AN120" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO120" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2950.77</v>
       </c>
       <c r="AP120" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14802,15 +14802,15 @@
         <v>2815.1836269999999</v>
       </c>
       <c r="AN121" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO121" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>2815.18</v>
       </c>
       <c r="AP121" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14930,15 +14930,15 @@
         <v>3347.401085</v>
       </c>
       <c r="AN122" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO122" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3347.4</v>
       </c>
       <c r="AP122" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -15058,15 +15058,15 @@
         <v>4066.181771</v>
       </c>
       <c r="AN123" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO123" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4066.2</v>
       </c>
       <c r="AP123" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -15186,16 +15186,16 @@
         <v>4358.6656380000004</v>
       </c>
       <c r="AN124" s="6">
-        <f t="shared" si="9"/>
-        <v>5.12</v>
+        <f t="shared" si="5"/>
+        <v>-5.12</v>
       </c>
       <c r="AO124" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4234.57</v>
       </c>
       <c r="AP124" s="5">
-        <f t="shared" si="11"/>
-        <v>2.34</v>
+        <f t="shared" si="6"/>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="125" spans="2:42">
@@ -15314,15 +15314,15 @@
         <v>4722.4045580000002</v>
       </c>
       <c r="AN125" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO125" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4722.3999999999996</v>
       </c>
       <c r="AP125" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -15442,16 +15442,16 @@
         <v>3937.4428939999998</v>
       </c>
       <c r="AN126" s="6">
-        <f t="shared" si="9"/>
-        <v>0.06</v>
+        <f t="shared" si="5"/>
+        <v>-0.06</v>
       </c>
       <c r="AO126" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>3937.4</v>
       </c>
       <c r="AP126" s="5">
-        <f t="shared" si="11"/>
-        <v>0.06</v>
+        <f t="shared" si="6"/>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="127" spans="2:42">
@@ -15570,16 +15570,16 @@
         <v>4580.5939799999996</v>
       </c>
       <c r="AN127" s="6">
-        <f t="shared" si="9"/>
-        <v>0.53</v>
+        <f t="shared" si="5"/>
+        <v>-0.53</v>
       </c>
       <c r="AO127" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4579.0600000000004</v>
       </c>
       <c r="AP127" s="5">
-        <f t="shared" si="11"/>
-        <v>0.49</v>
+        <f t="shared" si="6"/>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="128" spans="2:42">
@@ -15698,16 +15698,16 @@
         <v>4567.4895040000001</v>
       </c>
       <c r="AN128" s="6">
-        <f t="shared" si="9"/>
-        <v>0.57999999999999996</v>
+        <f t="shared" si="5"/>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="AO128" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4567.5</v>
       </c>
       <c r="AP128" s="5">
-        <f t="shared" si="11"/>
-        <v>0.57999999999999996</v>
+        <f t="shared" si="6"/>
+        <v>-0.57999999999999996</v>
       </c>
     </row>
     <row r="129" spans="2:42">
@@ -15826,15 +15826,15 @@
         <v>5946.4917359999999</v>
       </c>
       <c r="AN129" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO129" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5946.5</v>
       </c>
       <c r="AP129" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -15954,15 +15954,15 @@
         <v>5202.0717020000002</v>
       </c>
       <c r="AN130" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO130" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>5202.1000000000004</v>
       </c>
       <c r="AP130" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16082,16 +16082,16 @@
         <v>4245.1756130000003</v>
       </c>
       <c r="AN131" s="6">
-        <f t="shared" si="9"/>
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="5"/>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AO131" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4245.2</v>
       </c>
       <c r="AP131" s="5">
-        <f t="shared" si="11"/>
-        <v>7.0000000000000007E-2</v>
+        <f t="shared" si="6"/>
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="132" spans="2:42">
@@ -16210,15 +16210,15 @@
         <v>4891.2467230000002</v>
       </c>
       <c r="AN132" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO132" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>4891.2</v>
       </c>
       <c r="AP132" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16338,15 +16338,15 @@
         <v>8931.9228070000008</v>
       </c>
       <c r="AN133" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO133" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>8931.9</v>
       </c>
       <c r="AP133" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16466,16 +16466,16 @@
         <v>9416.7271679999994</v>
       </c>
       <c r="AN134" s="6">
-        <f t="shared" si="9"/>
-        <v>0.61</v>
+        <f t="shared" si="5"/>
+        <v>-0.61</v>
       </c>
       <c r="AO134" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>9416.7000000000007</v>
       </c>
       <c r="AP134" s="5">
-        <f t="shared" si="11"/>
-        <v>0.61</v>
+        <f t="shared" si="6"/>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="135" spans="2:42">
@@ -16594,15 +16594,15 @@
         <v>10886.28781</v>
       </c>
       <c r="AN135" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO135" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>10886.3</v>
       </c>
       <c r="AP135" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16722,16 +16722,16 @@
         <v>7791.4631570000001</v>
       </c>
       <c r="AN136" s="6">
-        <f t="shared" si="9"/>
-        <v>0.72</v>
+        <f t="shared" si="5"/>
+        <v>-0.72</v>
       </c>
       <c r="AO136" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>7791.5</v>
       </c>
       <c r="AP136" s="5">
-        <f t="shared" si="11"/>
-        <v>0.72</v>
+        <f t="shared" si="6"/>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="137" spans="2:42">
@@ -16850,15 +16850,15 @@
         <v>9082.5832829999999</v>
       </c>
       <c r="AN137" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO137" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>9082.6</v>
       </c>
       <c r="AP137" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
